--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,218 +662,231 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1432000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1586000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1592000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1687000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1689000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1771000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1844000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1851000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1593000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1566000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1510000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1471000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1311000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1116000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1172000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1169000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1234000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1269000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1255000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1323000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1336000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1180000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1183000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1145000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1121000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>989000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E10" s="3">
         <v>316000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>414000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>423000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>453000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>420000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>516000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>521000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>515000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>413000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>365000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>350000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>322000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,10 +920,10 @@
         <v>17000</v>
       </c>
       <c r="G12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H12" s="3">
         <v>16000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>18000</v>
       </c>
       <c r="I12" s="3">
         <v>18000</v>
@@ -921,25 +935,28 @@
         <v>18000</v>
       </c>
       <c r="L12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M12" s="3">
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>17000</v>
       </c>
       <c r="O12" s="3">
         <v>17000</v>
       </c>
       <c r="P12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,60 +1002,66 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>102000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>98000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
         <v>6000</v>
@@ -1053,34 +1076,37 @@
         <v>6000</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
         <v>5000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6000</v>
       </c>
       <c r="L15" s="3">
         <v>6000</v>
       </c>
       <c r="M15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N15" s="3">
         <v>5000</v>
       </c>
       <c r="O15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P15" s="3">
         <v>4000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1364000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1326000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1406000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1367000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1430000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1397000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1486000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1508000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1353000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1337000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1292000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1301000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1194000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E18" s="3">
         <v>68000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>260000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>186000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>320000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>374000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>358000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>343000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>240000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>229000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,102 +1241,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>90000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>86000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>96000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-54000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>118000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>116000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>122000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>92000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>93000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>99000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E21" s="3">
         <v>160000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>445000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>358000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>296000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>582000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>562000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>545000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>375000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>403000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>388000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>341000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>257000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1311,140 +1351,149 @@
         <v>28000</v>
       </c>
       <c r="E22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F22" s="3">
         <v>27000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>31000</v>
       </c>
       <c r="H22" s="3">
         <v>31000</v>
       </c>
       <c r="I22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>29000</v>
       </c>
       <c r="P22" s="3">
         <v>29000</v>
       </c>
       <c r="Q22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E23" s="3">
         <v>41000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>323000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>239000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>385000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>462000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>442000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>265000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>289000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>281000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>240000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>156000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>72000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1490,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E26" s="3">
         <v>44000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>270000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>211000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>339000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>102000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>397000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>367000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>295000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>232000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>241000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>184000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>161000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E27" s="3">
         <v>42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>268000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>210000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>338000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>396000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>344000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>365000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>294000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>230000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>239000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>183000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>160000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,19 +1689,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-1000</v>
       </c>
       <c r="G29" s="3">
         <v>-1000</v>
@@ -1652,34 +1713,37 @@
         <v>-1000</v>
       </c>
       <c r="I29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-91000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-8000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1772,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-90000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-86000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-96000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>54000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-118000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-116000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-122000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-92000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-93000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-99000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E33" s="3">
         <v>43000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>263000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>209000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>337000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>99000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>401000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>344000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>363000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>203000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>226000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>231000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>183000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>160000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E35" s="3">
         <v>43000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>263000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>209000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>337000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>99000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>401000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>344000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>363000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>203000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>226000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>231000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>183000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>160000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2050,78 +2136,82 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E41" s="3">
         <v>463000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>497000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>491000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>441000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>439000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>703000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>708000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>490000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>576000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>461000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>511000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>501000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>638000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E42" s="3">
         <v>40000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>31000</v>
       </c>
       <c r="I42" s="3">
         <v>31000</v>
       </c>
       <c r="J42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="K42" s="3">
         <v>32000</v>
@@ -2130,351 +2220,375 @@
         <v>32000</v>
       </c>
       <c r="M42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N42" s="3">
         <v>31000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1181000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1282000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1303000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1358000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1318000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1365000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1445000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1476000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1230000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1249000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1212000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1102000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1038000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>994000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1011000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1009000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1046000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1033000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>917000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>955000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>809000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>771000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>717000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>720000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E45" s="3">
         <v>43000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>44000</v>
       </c>
       <c r="F45" s="3">
         <v>44000</v>
       </c>
       <c r="G45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="H45" s="3">
         <v>47000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2855000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2765000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2843000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2876000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2884000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2874000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3180000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3153000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3006000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2792000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2613000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2583000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2389000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2472000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E47" s="3">
         <v>975000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>970000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>950000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>979000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>981000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>963000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>979000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>976000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>938000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>885000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>874000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>852000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>3879000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3916000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3791000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3851000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3931000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3719000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3699000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3724000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3801000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3762000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3706000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3663000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3571000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3577000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1386000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1368000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1410000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1407000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1367000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1381000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1394000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1443000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1304000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1298000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1277000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>992000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>990000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2520,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2567,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E52" s="3">
         <v>434000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>442000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>410000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>402000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>374000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>583000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>555000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>551000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>704000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>507000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>475000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>462000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>466000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9545000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9476000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9414000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9574000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9313000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9824000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9789000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9780000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9538000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9062000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8883000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8288000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8357000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2727,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2746,25 +2876,26 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>724000</v>
+      </c>
+      <c r="E57" s="3">
         <v>780000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>764000</v>
       </c>
       <c r="F57" s="3">
         <v>764000</v>
       </c>
       <c r="G57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="H57" s="3">
         <v>699000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>819000</v>
       </c>
       <c r="I57" s="3">
         <v>819000</v>
@@ -2773,263 +2904,281 @@
         <v>819000</v>
       </c>
       <c r="K57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="L57" s="3">
         <v>797000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>807000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>695000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>666000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>615000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>625000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E58" s="3">
         <v>496000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>368000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>319000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>743000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>561000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>229000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>366000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>425000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>326000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>435000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>384000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>107000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>118000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E59" s="3">
         <v>478000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>325000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>380000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>399000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>484000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>380000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>426000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>420000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>374000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>293000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>334000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1928000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1754000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1533000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1408000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1822000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1779000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1532000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1610000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1602000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1559000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1550000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1424000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1015000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3356000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3409000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3359000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3444000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2933000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2970000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3196000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3228000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3343000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3315000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2954000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2931000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2851000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2890000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1415000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1383000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1380000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1185000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1153000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1164000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1170000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1365000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1423000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1406000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1381000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1369000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3122,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3169,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7097000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6969000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6667000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6642000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6527000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6329000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6283000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6409000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6527000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6651000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6347000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6189000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5677000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5769000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3235,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3329,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3376,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3423,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>6543000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6399000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6431000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6245000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6114000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5847000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5819000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5491000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5220000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4920000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4781000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4617000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4451000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4320000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3517,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3611,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2448000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2507000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2747000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2864000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3047000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2984000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3541000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3253000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2887000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2715000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2694000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2611000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2588000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3705,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E81" s="3">
         <v>43000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>263000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>209000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>337000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>99000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>401000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>344000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>363000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>203000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>226000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>231000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>183000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>160000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3823,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E83" s="3">
         <v>91000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>86000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>90000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>88000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>72000</v>
       </c>
       <c r="P83" s="3">
         <v>72000</v>
       </c>
       <c r="Q83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="R83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3917,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3964,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4011,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4058,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4105,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E89" s="3">
         <v>326000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>424000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>307000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>363000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>467000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>585000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>143000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>255000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>298000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>192000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4171,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-144000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-82000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-79000</v>
       </c>
       <c r="J91" s="3">
         <v>-79000</v>
       </c>
       <c r="K91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-86000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-64000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4265,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4312,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-168000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-177000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-98000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-235000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-325000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4378,55 +4611,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-75000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-77000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-78000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-70000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-73000</v>
       </c>
       <c r="J96" s="3">
         <v>-73000</v>
       </c>
       <c r="K96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="L96" s="3">
         <v>-63000</v>
       </c>
       <c r="M96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-62000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-51000</v>
       </c>
       <c r="P96" s="3">
         <v>-51000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4519,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4566,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-199000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-299000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-307000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-130000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-526000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-383000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>145000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-247000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-270000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-264000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>218000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-50000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-137000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-614000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1193000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1460000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1432000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1586000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1592000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1687000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1689000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1771000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1844000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1851000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1593000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1566000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1510000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1471000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1311000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1112000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1116000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1172000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1169000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1234000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1269000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1255000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1323000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1336000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1180000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1183000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1145000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1121000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>989000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E10" s="3">
         <v>348000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>316000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>414000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>423000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>453000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>420000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>516000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>521000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>515000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>413000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>365000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>350000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>322000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,13 +918,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="3">
         <v>17000</v>
@@ -923,10 +937,10 @@
         <v>17000</v>
       </c>
       <c r="H12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I12" s="3">
         <v>16000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>18000</v>
       </c>
       <c r="J12" s="3">
         <v>18000</v>
@@ -938,25 +952,28 @@
         <v>18000</v>
       </c>
       <c r="M12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N12" s="3">
         <v>20000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>17000</v>
       </c>
       <c r="P12" s="3">
         <v>17000</v>
       </c>
       <c r="Q12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="R12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,66 +1022,72 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>102000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>98000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-4000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6000</v>
       </c>
       <c r="F15" s="3">
         <v>6000</v>
@@ -1079,34 +1102,37 @@
         <v>6000</v>
       </c>
       <c r="J15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6000</v>
       </c>
       <c r="M15" s="3">
         <v>6000</v>
       </c>
       <c r="N15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O15" s="3">
         <v>5000</v>
       </c>
       <c r="P15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1266000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1364000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1326000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1406000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1367000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1430000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1397000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1486000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1508000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1353000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1337000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1292000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1301000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1194000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E18" s="3">
         <v>194000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>260000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>186000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>320000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>259000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>374000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>358000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>343000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>240000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>229000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E20" s="3">
         <v>126000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>90000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>86000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>96000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>118000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>122000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>56000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>92000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>93000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>99000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E21" s="3">
         <v>406000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>160000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>445000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>358000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>296000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>582000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>562000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>545000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>375000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>403000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>388000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>341000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>257000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="E22" s="3">
         <v>28000</v>
       </c>
       <c r="F22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G22" s="3">
         <v>27000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>31000</v>
       </c>
       <c r="I22" s="3">
         <v>31000</v>
       </c>
       <c r="J22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>29000</v>
       </c>
       <c r="Q22" s="3">
         <v>29000</v>
       </c>
       <c r="R22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E23" s="3">
         <v>292000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>323000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>239000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>385000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>174000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>462000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>442000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>432000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>265000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>289000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>281000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>240000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>156000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>65000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>72000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>227000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>270000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>211000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>339000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>102000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>397000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>345000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>367000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>295000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>232000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>241000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>184000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>161000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E27" s="3">
         <v>225000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>268000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>210000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>338000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>396000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>344000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>365000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>294000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>230000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>239000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>183000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>160000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,22 +1750,25 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-7000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-1000</v>
       </c>
       <c r="H29" s="3">
         <v>-1000</v>
@@ -1716,34 +1777,37 @@
         <v>-1000</v>
       </c>
       <c r="J29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-91000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-8000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-126000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-90000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-86000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-96000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-118000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-122000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-56000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-92000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-93000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E33" s="3">
         <v>218000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>263000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>209000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>337000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>99000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>401000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>344000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>363000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>203000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>226000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>231000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>183000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>160000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E35" s="3">
         <v>218000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>263000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>209000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>337000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>99000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>401000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>344000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>363000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>203000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>226000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>231000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>183000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>160000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,84 +2223,88 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E41" s="3">
         <v>570000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>463000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>497000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>491000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>441000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>439000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>703000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>708000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>490000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>576000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>461000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>511000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>501000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>638000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E42" s="3">
         <v>38000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>40000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>31000</v>
       </c>
       <c r="J42" s="3">
         <v>31000</v>
       </c>
       <c r="K42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="L42" s="3">
         <v>32000</v>
@@ -2223,372 +2313,396 @@
         <v>32000</v>
       </c>
       <c r="N42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O42" s="3">
         <v>31000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1160000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1181000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1282000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1303000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1358000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1318000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1365000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1445000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1476000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1230000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1249000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1212000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1024000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1036000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1038000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>994000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1011000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1009000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1046000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1033000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>917000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>955000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>809000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>771000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>717000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>720000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E45" s="3">
         <v>51000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44000</v>
       </c>
       <c r="G45" s="3">
         <v>44000</v>
       </c>
       <c r="H45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I45" s="3">
         <v>47000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2855000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2765000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2843000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2876000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2884000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2874000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3180000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3153000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3006000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2792000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2613000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2583000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2389000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2472000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E47" s="3">
         <v>981000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>975000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>970000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>959000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>950000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>979000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>981000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>963000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>979000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>976000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>938000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>885000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>874000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>852000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>3926000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3879000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3916000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3791000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3851000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3931000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3719000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3699000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3724000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3801000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3762000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3706000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3663000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3571000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3577000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1358000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1386000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1368000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1410000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1407000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1367000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1381000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1394000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1443000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1304000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1298000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1277000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>992000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>990000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E52" s="3">
         <v>472000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>434000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>442000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>410000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>402000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>374000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>583000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>555000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>551000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>704000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>507000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>475000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>462000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>466000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9506000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9545000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9476000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9414000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9506000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9574000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9313000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9789000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9780000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9538000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9062000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8883000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8288000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8357000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,28 +3007,29 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E57" s="3">
         <v>724000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>780000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>764000</v>
       </c>
       <c r="G57" s="3">
         <v>764000</v>
       </c>
       <c r="H57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="I57" s="3">
         <v>699000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>819000</v>
       </c>
       <c r="J57" s="3">
         <v>819000</v>
@@ -2907,278 +3038,296 @@
         <v>819000</v>
       </c>
       <c r="L57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="M57" s="3">
         <v>797000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>807000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>695000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>666000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>615000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>625000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E58" s="3">
         <v>749000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>496000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>368000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>319000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>743000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>561000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>229000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>366000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>425000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>326000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>435000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>384000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>107000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>118000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E59" s="3">
         <v>455000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>478000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>401000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>325000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>380000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>399000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>484000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>425000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>380000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>426000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>420000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>374000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>293000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>334000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2262000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1928000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1754000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1533000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1408000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1822000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1779000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1532000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1610000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1602000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1559000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1550000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1424000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1077000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2989000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3356000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3409000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3359000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3444000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2933000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2970000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3196000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3228000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3343000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3315000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2954000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2931000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2851000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2890000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1425000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1415000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1383000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1380000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1185000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1153000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1170000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1365000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1423000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1406000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1381000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1369000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7019000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7097000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6969000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6667000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6642000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6527000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6329000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6283000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6409000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6527000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6651000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6347000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6189000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5677000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5769000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>6576000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6543000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6431000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6245000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6114000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5847000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5819000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5491000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5220000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4920000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4781000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4617000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4451000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4320000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2448000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2507000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2747000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2864000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3047000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2984000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3541000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3253000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2887000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2715000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2694000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2611000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2588000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E81" s="3">
         <v>218000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>263000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>209000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>337000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>99000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>401000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>344000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>363000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>203000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>226000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>231000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>183000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>160000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E83" s="3">
         <v>86000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>91000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>86000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>91000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>90000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>72000</v>
       </c>
       <c r="Q83" s="3">
         <v>72000</v>
       </c>
       <c r="R83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="S83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E89" s="3">
         <v>259000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>326000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>424000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>307000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>363000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>467000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>585000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>143000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>58000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>255000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>298000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>192000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-47000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-144000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-79000</v>
       </c>
       <c r="K91" s="3">
         <v>-79000</v>
       </c>
       <c r="L91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-86000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-64000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-128000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-168000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-177000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-98000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-235000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-325000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-247000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4621,49 +4855,52 @@
         <v>-74000</v>
       </c>
       <c r="E96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-75000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-77000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-78000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-73000</v>
       </c>
       <c r="K96" s="3">
         <v>-73000</v>
       </c>
       <c r="L96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="M96" s="3">
         <v>-63000</v>
       </c>
       <c r="N96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-62000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-51000</v>
       </c>
       <c r="Q96" s="3">
         <v>-51000</v>
       </c>
       <c r="R96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-232000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-199000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-299000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-307000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-130000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-526000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-383000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>145000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-247000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-270000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-292000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>107000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-264000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>218000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-137000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-614000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1193000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1460000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1432000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1586000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1592000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1687000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1689000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1771000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1844000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1851000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1593000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1566000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1510000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1471000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1311000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E9" s="3">
         <v>951000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1116000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1172000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1169000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1234000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1269000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1255000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1323000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1336000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1180000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1183000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1121000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>989000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E10" s="3">
         <v>242000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>348000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>316000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>414000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>423000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>453000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>420000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>516000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>521000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>515000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>413000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>383000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>365000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>350000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>322000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,16 +932,17 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>17000</v>
       </c>
       <c r="F12" s="3">
         <v>17000</v>
@@ -940,10 +954,10 @@
         <v>17000</v>
       </c>
       <c r="I12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J12" s="3">
         <v>16000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>18000</v>
       </c>
       <c r="K12" s="3">
         <v>18000</v>
@@ -955,25 +969,28 @@
         <v>18000</v>
       </c>
       <c r="N12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="O12" s="3">
         <v>20000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>17000</v>
       </c>
       <c r="Q12" s="3">
         <v>17000</v>
       </c>
       <c r="R12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="S12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,61 +1042,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>102000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>98000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1087,10 +1110,10 @@
         <v>6000</v>
       </c>
       <c r="E15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F15" s="3">
         <v>5000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6000</v>
       </c>
       <c r="G15" s="3">
         <v>6000</v>
@@ -1105,34 +1128,37 @@
         <v>6000</v>
       </c>
       <c r="K15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
       </c>
       <c r="O15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P15" s="3">
         <v>5000</v>
       </c>
       <c r="Q15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R15" s="3">
         <v>4000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1110000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1266000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1364000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1326000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1406000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1367000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1430000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1397000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1486000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1508000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1353000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1337000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1292000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1301000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1194000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E18" s="3">
         <v>83000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>194000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>260000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>186000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>320000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>374000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>358000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>343000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>240000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>229000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>117000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E20" s="3">
         <v>91000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>126000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>90000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>86000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>96000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-54000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>118000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>116000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>122000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>56000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>92000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>93000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>99000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E21" s="3">
         <v>263000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>406000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>160000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>445000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>358000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>296000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>582000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>562000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>545000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>375000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>403000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>388000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>341000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>257000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>27000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>28000</v>
       </c>
       <c r="F22" s="3">
         <v>28000</v>
       </c>
       <c r="G22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="H22" s="3">
         <v>27000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>31000</v>
       </c>
       <c r="J22" s="3">
         <v>31000</v>
       </c>
       <c r="K22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>29000</v>
       </c>
       <c r="R22" s="3">
         <v>29000</v>
       </c>
       <c r="S22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E23" s="3">
         <v>147000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>292000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>323000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>239000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>385000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>174000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>462000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>442000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>432000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>265000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>289000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>281000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>240000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>156000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>72000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E26" s="3">
         <v>112000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>227000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>270000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>211000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>339000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>102000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>397000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>345000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>367000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>295000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>232000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>241000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>184000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>161000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E27" s="3">
         <v>110000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>225000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>268000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>210000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>338000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>396000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>344000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>365000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>294000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>230000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>239000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>183000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>160000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,25 +1811,28 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-7000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-1000</v>
       </c>
       <c r="I29" s="3">
         <v>-1000</v>
@@ -1780,34 +1841,37 @@
         <v>-1000</v>
       </c>
       <c r="K29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L29" s="3">
         <v>5000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-91000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-91000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-126000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-90000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-86000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-96000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>54000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-118000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-116000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-122000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-56000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-92000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-99000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E33" s="3">
         <v>107000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>218000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>263000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>209000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>337000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>99000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>401000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>344000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>363000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>203000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>226000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>231000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>183000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>160000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E35" s="3">
         <v>107000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>218000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>263000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>209000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>337000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>99000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>401000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>344000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>363000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>203000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>226000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>231000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>183000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>160000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,90 +2310,94 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E41" s="3">
         <v>539000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>570000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>463000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>497000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>491000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>441000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>439000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>703000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>708000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>490000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>576000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>461000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>511000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>501000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>638000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E42" s="3">
         <v>36000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>38000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>40000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>31000</v>
       </c>
       <c r="K42" s="3">
         <v>31000</v>
       </c>
       <c r="L42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="M42" s="3">
         <v>32000</v>
@@ -2316,393 +2406,417 @@
         <v>32000</v>
       </c>
       <c r="O42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P42" s="3">
         <v>31000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>31000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1041000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1160000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1181000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1282000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1303000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1358000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1318000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1365000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1445000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1476000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1230000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1249000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1102000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1024000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1031000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1036000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1038000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>994000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1011000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1009000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1046000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1033000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>917000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>955000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>809000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>771000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>717000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>720000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E45" s="3">
         <v>62000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44000</v>
       </c>
       <c r="H45" s="3">
         <v>44000</v>
       </c>
       <c r="I45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J45" s="3">
         <v>47000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2709000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2855000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2765000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2843000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2876000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2884000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2874000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3180000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3153000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3006000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2792000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2613000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2583000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2389000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2472000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E47" s="3">
         <v>957000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>981000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>975000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>970000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>959000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>950000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>979000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>981000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>963000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>979000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>976000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>938000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>885000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>874000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>852000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4061000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3926000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3879000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3916000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3791000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3851000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3931000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3719000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3699000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3724000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3801000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3762000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3706000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3663000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3571000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3577000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1415000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1358000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1386000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1368000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1410000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1407000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1367000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1381000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1394000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1443000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1304000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1298000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>992000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>990000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2816,52 +2936,55 @@
         <v>499000</v>
       </c>
       <c r="E52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="F52" s="3">
         <v>472000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>434000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>442000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>410000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>402000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>583000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>555000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>551000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>704000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>507000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>475000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>462000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>466000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9769000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9506000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9545000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9476000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9414000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9506000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9574000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9313000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9824000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9789000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9780000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9538000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9062000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8883000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8288000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8357000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,31 +3138,32 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E57" s="3">
         <v>599000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>724000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>780000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>764000</v>
       </c>
       <c r="H57" s="3">
         <v>764000</v>
       </c>
       <c r="I57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="J57" s="3">
         <v>699000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>819000</v>
       </c>
       <c r="K57" s="3">
         <v>819000</v>
@@ -3041,293 +3172,311 @@
         <v>819000</v>
       </c>
       <c r="M57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="N57" s="3">
         <v>797000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>807000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>695000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>666000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>615000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>625000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1045000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>749000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>496000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>368000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>319000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>743000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>561000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>229000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>366000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>425000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>326000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>435000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>384000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>107000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>118000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>752000</v>
+      </c>
+      <c r="E59" s="3">
         <v>618000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>455000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>478000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>401000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>325000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>380000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>399000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>484000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>425000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>380000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>426000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>420000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>374000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>293000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>334000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2409000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2262000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1928000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1754000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1533000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1408000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1822000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1779000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1532000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1610000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1602000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1559000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1550000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1424000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1015000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1077000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2989000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3356000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3409000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3359000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3444000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2933000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2970000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3196000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3228000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3343000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3315000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2954000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2931000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2851000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2890000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1386000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1425000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1415000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1383000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1380000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1185000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1153000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1164000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1170000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1365000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1423000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1381000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1369000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7261000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7019000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7097000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6969000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6667000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6642000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6527000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6329000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6283000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6409000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6527000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6651000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6347000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6189000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5677000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5769000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>6710000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6576000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6543000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6431000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6245000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6114000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5847000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5819000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5491000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5220000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4920000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4781000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4617000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4451000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4320000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2487000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2448000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2507000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2747000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2864000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3047000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2984000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3541000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3380000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3253000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2887000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2715000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2611000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2588000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E81" s="3">
         <v>107000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>218000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>263000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>209000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>337000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>401000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>344000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>363000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>203000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>226000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>231000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>183000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>160000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
         <v>89000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>86000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>91000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>91000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>90000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>88000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>79000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>72000</v>
       </c>
       <c r="R83" s="3">
         <v>72000</v>
       </c>
       <c r="S83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="T83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E89" s="3">
         <v>379000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>259000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>326000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>424000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>307000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>363000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>467000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>585000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>143000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>255000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>298000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>192000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-47000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-119000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-144000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-82000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-79000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-79000</v>
       </c>
       <c r="L91" s="3">
         <v>-79000</v>
       </c>
       <c r="M91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-86000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-62000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-181000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-128000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-168000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-177000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-98000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-235000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-92000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-325000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-247000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-74000</v>
+        <v>-73000</v>
       </c>
       <c r="E96" s="3">
         <v>-74000</v>
       </c>
       <c r="F96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-75000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-77000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-78000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-70000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-73000</v>
       </c>
       <c r="L96" s="3">
         <v>-73000</v>
       </c>
       <c r="M96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="N96" s="3">
         <v>-63000</v>
       </c>
       <c r="O96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-62000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-51000</v>
       </c>
       <c r="R96" s="3">
         <v>-51000</v>
       </c>
       <c r="S96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-290000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-232000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-199000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-299000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-307000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-130000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-526000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-383000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-254000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>145000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-247000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-270000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-292000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-264000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>218000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-50000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-137000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-614000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1411000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1193000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1460000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1432000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1586000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1592000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1687000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1689000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1771000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1844000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1851000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1593000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1566000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1510000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1471000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1311000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1084000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>951000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1116000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1172000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1169000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1234000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1269000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1255000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1323000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1336000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1180000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1183000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1145000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1121000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>989000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E10" s="3">
         <v>327000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>242000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>348000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>316000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>414000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>423000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>453000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>420000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>516000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>521000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>515000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>413000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>383000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>365000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>350000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>322000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,19 +945,20 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>17000</v>
       </c>
       <c r="G12" s="3">
         <v>17000</v>
@@ -957,10 +970,10 @@
         <v>17000</v>
       </c>
       <c r="J12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K12" s="3">
         <v>16000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>18000</v>
       </c>
       <c r="L12" s="3">
         <v>18000</v>
@@ -972,25 +985,28 @@
         <v>18000</v>
       </c>
       <c r="O12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P12" s="3">
         <v>20000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>17000</v>
       </c>
       <c r="R12" s="3">
         <v>17000</v>
       </c>
       <c r="S12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="T12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,78 +1061,84 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1406000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>102000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>98000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
         <v>6000</v>
       </c>
       <c r="F15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="3">
         <v>5000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6000</v>
       </c>
       <c r="H15" s="3">
         <v>6000</v>
@@ -1131,34 +1153,37 @@
         <v>6000</v>
       </c>
       <c r="L15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>6000</v>
       </c>
       <c r="O15" s="3">
         <v>6000</v>
       </c>
       <c r="P15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q15" s="3">
         <v>5000</v>
       </c>
       <c r="R15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S15" s="3">
         <v>4000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1227000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1110000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1266000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1364000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1326000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1406000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1367000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1430000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1397000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1486000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1508000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1353000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1337000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1292000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1301000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1194000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="E18" s="3">
         <v>184000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>83000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>194000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>260000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>186000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>320000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>259000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>374000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>358000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>343000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>240000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>229000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>218000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>170000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,288 +1342,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>85000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>91000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>126000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>90000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>86000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>96000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>118000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>122000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>56000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>92000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>93000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>99000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E21" s="3">
         <v>359000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>263000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>406000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>160000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>445000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>358000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>296000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>582000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>562000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>545000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>375000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>403000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>388000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>341000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>257000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>28000</v>
       </c>
       <c r="G22" s="3">
         <v>28000</v>
       </c>
       <c r="H22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I22" s="3">
         <v>27000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>31000</v>
       </c>
       <c r="K22" s="3">
         <v>31000</v>
       </c>
       <c r="L22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="M22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>29000</v>
       </c>
       <c r="S22" s="3">
         <v>29000</v>
       </c>
       <c r="T22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="U22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E23" s="3">
         <v>241000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>147000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>292000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>323000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>239000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>385000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>462000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>442000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>432000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>265000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>289000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>240000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>156000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>72000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E26" s="3">
         <v>211000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>227000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>270000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>211000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>339000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>102000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>397000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>345000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>367000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>295000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>232000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>241000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>184000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>161000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E27" s="3">
         <v>209000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>110000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>268000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>210000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>338000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>396000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>344000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>365000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>294000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>230000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>239000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>183000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>160000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,28 +1871,31 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-7000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-1000</v>
       </c>
       <c r="J29" s="3">
         <v>-1000</v>
@@ -1844,34 +1904,37 @@
         <v>-1000</v>
       </c>
       <c r="L29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M29" s="3">
         <v>5000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-91000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-8000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-85000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-91000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-126000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-90000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-86000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-96000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-118000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-122000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-56000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-93000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-99000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E33" s="3">
         <v>207000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>107000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>218000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>43000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>263000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>209000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>337000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>401000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>344000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>363000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>203000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>226000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>231000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>183000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>160000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E35" s="3">
         <v>207000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>107000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>218000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>43000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>263000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>209000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>337000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>401000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>344000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>363000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>203000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>226000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>231000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>183000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>160000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,96 +2396,100 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E41" s="3">
         <v>615000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>539000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>570000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>463000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>497000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>491000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>441000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>439000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>703000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>708000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>490000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>576000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>461000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>511000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>501000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>638000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E42" s="3">
         <v>35000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>31000</v>
       </c>
       <c r="L42" s="3">
         <v>31000</v>
       </c>
       <c r="M42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="N42" s="3">
         <v>32000</v>
@@ -2409,414 +2498,438 @@
         <v>32000</v>
       </c>
       <c r="P42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>31000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>31000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1063000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1041000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1160000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1181000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1282000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1303000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1358000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1318000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1365000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1445000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1476000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1230000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1212000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1102000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1024000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1001000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1031000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1036000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1038000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>994000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1011000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1009000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1046000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1033000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>917000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>955000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>809000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>771000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>717000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>720000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E45" s="3">
         <v>57000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>44000</v>
       </c>
       <c r="I45" s="3">
         <v>44000</v>
       </c>
       <c r="J45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K45" s="3">
         <v>47000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3763000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2771000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2709000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2855000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2765000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2843000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2876000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2884000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2874000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3180000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3153000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3006000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2792000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2613000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2583000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2389000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2472000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E47" s="3">
         <v>993000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>957000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>981000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>975000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>970000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>959000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>950000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>979000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>981000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>963000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>979000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>976000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>938000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>885000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>874000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>852000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4171000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4061000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3926000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3879000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3916000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3791000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3851000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3931000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3719000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3699000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3724000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3801000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3762000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3706000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3663000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3571000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3577000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1445000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1415000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1358000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1386000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1368000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1410000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1407000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1367000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1381000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1394000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1443000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1304000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1298000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1277000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>992000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>990000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>499000</v>
+        <v>670000</v>
       </c>
       <c r="E52" s="3">
         <v>499000</v>
       </c>
       <c r="F52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="G52" s="3">
         <v>472000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>434000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>442000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>410000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>402000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>583000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>555000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>551000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>704000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>507000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>475000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>462000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>466000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10909000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9769000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9545000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9476000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9414000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9506000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9574000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9313000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9824000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9789000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9780000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9538000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9062000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8883000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8288000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8357000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,34 +3268,35 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E57" s="3">
         <v>699000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>599000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>724000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>780000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>764000</v>
       </c>
       <c r="I57" s="3">
         <v>764000</v>
       </c>
       <c r="J57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="K57" s="3">
         <v>699000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>819000</v>
       </c>
       <c r="L57" s="3">
         <v>819000</v>
@@ -3175,308 +3305,326 @@
         <v>819000</v>
       </c>
       <c r="N57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="O57" s="3">
         <v>797000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>807000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>695000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>666000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>615000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>625000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E58" s="3">
         <v>958000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1045000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>749000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>496000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>368000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>319000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>743000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>561000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>229000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>366000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>425000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>326000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>435000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>384000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>107000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>118000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E59" s="3">
         <v>752000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>618000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>455000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>478000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>401000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>325000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>380000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>399000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>484000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>425000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>380000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>426000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>420000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>374000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>293000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>334000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1973000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2409000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2262000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1928000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1754000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1533000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1408000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1822000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1779000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1532000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1610000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1602000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1559000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1550000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1424000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1015000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1077000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3227000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3140000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2989000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3356000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3409000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3359000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3444000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2933000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2970000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3196000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3228000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3343000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3315000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2954000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2931000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2851000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2890000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1336000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1386000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1425000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1415000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1383000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1380000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1185000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1153000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1164000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1170000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1365000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1406000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1381000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1369000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7383000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7261000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7019000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7097000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6969000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6667000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6642000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6527000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6329000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6283000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6409000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6527000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6651000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6347000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6189000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5677000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5769000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>8091000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6710000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6576000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6543000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6399000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6431000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6245000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6114000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5847000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5819000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5491000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5220000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4920000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4781000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4617000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4451000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4320000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3526000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2508000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2487000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2448000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2507000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2747000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2864000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3047000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2984000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3541000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3380000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3253000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2887000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2694000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2611000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2588000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E81" s="3">
         <v>207000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>107000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>218000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>43000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>263000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>209000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>337000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>401000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>344000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>363000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>203000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>226000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>231000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>183000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>160000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E83" s="3">
         <v>90000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>86000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>90000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>88000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>72000</v>
       </c>
       <c r="S83" s="3">
         <v>72000</v>
       </c>
       <c r="T83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="U83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E89" s="3">
         <v>431000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>379000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>259000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>326000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>397000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>424000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>307000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>363000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>467000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>585000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>143000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>255000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>298000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>192000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-47000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-88000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-119000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-144000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-82000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-79000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-79000</v>
       </c>
       <c r="M91" s="3">
         <v>-79000</v>
       </c>
       <c r="N91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-86000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-62000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-181000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-128000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-168000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-177000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-235000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-92000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-325000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-247000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-74000</v>
       </c>
       <c r="F96" s="3">
         <v>-74000</v>
       </c>
       <c r="G96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-75000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-77000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-78000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-70000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-73000</v>
       </c>
       <c r="M96" s="3">
         <v>-73000</v>
       </c>
       <c r="N96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="O96" s="3">
         <v>-63000</v>
       </c>
       <c r="P96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-51000</v>
       </c>
       <c r="S96" s="3">
         <v>-51000</v>
       </c>
       <c r="T96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-933000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-290000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-232000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-199000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-299000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-307000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-130000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-526000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-383000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-254000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>145000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-270000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-292000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E102" s="3">
         <v>76000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>107000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-264000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>218000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-137000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-614000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1591000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1411000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1193000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1460000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1432000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1586000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1592000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1687000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1689000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1771000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1844000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1851000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1593000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1566000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1510000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1471000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1311000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1215000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1084000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>951000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1116000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1172000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1169000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1234000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1269000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1255000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1323000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1336000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1180000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1183000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1145000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1121000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>989000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E10" s="3">
         <v>376000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>327000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>242000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>348000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>316000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>414000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>423000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>453000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>420000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>516000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>521000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>515000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>413000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>383000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>365000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>350000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>322000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,13 +969,13 @@
         <v>20000</v>
       </c>
       <c r="E12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>17000</v>
       </c>
       <c r="H12" s="3">
         <v>17000</v>
@@ -973,10 +987,10 @@
         <v>17000</v>
       </c>
       <c r="K12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L12" s="3">
         <v>16000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>18000</v>
       </c>
       <c r="M12" s="3">
         <v>18000</v>
@@ -988,25 +1002,28 @@
         <v>18000</v>
       </c>
       <c r="P12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>20000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>17000</v>
       </c>
       <c r="S12" s="3">
         <v>17000</v>
       </c>
       <c r="T12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="U12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,84 +1081,90 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>102000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>98000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6000</v>
       </c>
       <c r="F15" s="3">
         <v>6000</v>
       </c>
       <c r="G15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H15" s="3">
         <v>5000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6000</v>
       </c>
       <c r="I15" s="3">
         <v>6000</v>
@@ -1156,34 +1179,37 @@
         <v>6000</v>
       </c>
       <c r="M15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N15" s="3">
         <v>5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6000</v>
       </c>
       <c r="P15" s="3">
         <v>6000</v>
       </c>
       <c r="Q15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="R15" s="3">
         <v>5000</v>
       </c>
       <c r="S15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T15" s="3">
         <v>4000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-20000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1227000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1110000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1266000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1364000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1326000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1406000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1367000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1430000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1397000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1486000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1508000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1353000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1337000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1292000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1301000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1194000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1611000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>184000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>83000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>194000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>260000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>186000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>320000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>374000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>358000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>343000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>240000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>229000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>218000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>170000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>117000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>85000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>91000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>126000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>90000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>86000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>96000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>118000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>122000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>56000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>92000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>93000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>99000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>359000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>263000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>406000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>160000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>445000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>358000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>296000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>582000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>562000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>545000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>375000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>403000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>388000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>341000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>257000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>28000</v>
       </c>
       <c r="H22" s="3">
         <v>28000</v>
       </c>
       <c r="I22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J22" s="3">
         <v>27000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>31000</v>
       </c>
       <c r="L22" s="3">
         <v>31000</v>
       </c>
       <c r="M22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>29000</v>
       </c>
       <c r="T22" s="3">
         <v>29000</v>
       </c>
       <c r="U22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="V22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1571000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>241000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>292000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>323000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>239000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>385000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>462000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>442000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>432000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>265000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>289000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>240000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>156000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E24" s="3">
         <v>117000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>56000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1454000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>211000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>270000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>211000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>339000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>102000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>397000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>345000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>367000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>295000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>232000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>241000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>184000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>161000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1453000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>209000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>110000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>225000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>268000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>210000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>338000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>396000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>344000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>365000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>294000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>230000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>239000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>183000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>160000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,31 +1932,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-7000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-1000</v>
       </c>
       <c r="K29" s="3">
         <v>-1000</v>
@@ -1907,34 +1968,37 @@
         <v>-1000</v>
       </c>
       <c r="M29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N29" s="3">
         <v>5000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-8000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E32" s="3">
         <v>14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-85000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-91000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-126000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-90000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-86000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-96000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-118000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-122000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-92000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-93000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-99000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1453000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>207000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>107000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>218000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>263000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>209000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>337000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>401000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>344000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>363000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>203000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>226000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>231000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>183000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>160000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1453000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>207000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>107000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>218000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>263000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>209000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>337000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>401000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>344000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>363000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>203000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>226000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>231000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>183000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>160000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,102 +2483,106 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>791000</v>
+      </c>
+      <c r="E41" s="3">
         <v>955000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>615000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>539000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>570000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>463000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>497000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>491000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>439000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>703000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>708000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>490000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>576000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>461000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>511000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>501000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>638000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E42" s="3">
         <v>533000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>27000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>31000</v>
       </c>
       <c r="M42" s="3">
         <v>31000</v>
       </c>
       <c r="N42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="O42" s="3">
         <v>32000</v>
@@ -2501,435 +2591,459 @@
         <v>32000</v>
       </c>
       <c r="Q42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R42" s="3">
         <v>31000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>31000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1242000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1063000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1041000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1160000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1181000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1282000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1303000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1358000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1318000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1365000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1445000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1476000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1249000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1212000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1102000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1024000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E44" s="3">
         <v>978000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1001000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1031000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1036000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1038000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>994000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1011000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1009000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1046000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1033000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>917000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>955000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>809000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>771000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>717000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>720000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E45" s="3">
         <v>55000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>44000</v>
       </c>
       <c r="J45" s="3">
         <v>44000</v>
       </c>
       <c r="K45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="L45" s="3">
         <v>47000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3710000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3763000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2771000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2709000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2855000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2765000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2843000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2876000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2884000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2874000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3180000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3153000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3006000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2792000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2613000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2583000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2389000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2472000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E47" s="3">
         <v>820000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>993000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>957000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>981000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>975000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>970000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>959000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>950000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>979000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>981000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>963000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>979000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>976000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>938000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>885000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>874000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>852000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4097000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4171000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4061000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3926000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3879000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3916000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3791000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3851000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3931000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3719000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3699000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3724000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3801000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3762000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3706000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3663000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3571000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3577000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1485000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1445000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1415000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1358000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1386000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1368000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1410000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1407000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1367000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1381000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1394000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1443000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1298000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1277000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>992000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>990000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>711000</v>
+      </c>
+      <c r="E52" s="3">
         <v>670000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>499000</v>
       </c>
       <c r="F52" s="3">
         <v>499000</v>
       </c>
       <c r="G52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="H52" s="3">
         <v>472000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>434000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>442000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>410000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>402000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>374000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>583000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>555000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>551000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>704000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>507000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>475000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>462000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>466000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10756000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10909000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9769000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9545000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9476000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9414000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9506000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9574000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9313000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9824000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9789000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9780000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9538000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9062000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8883000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8288000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8357000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,37 +3399,38 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>906000</v>
+      </c>
+      <c r="E57" s="3">
         <v>797000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>699000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>599000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>724000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>780000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>764000</v>
       </c>
       <c r="J57" s="3">
         <v>764000</v>
       </c>
       <c r="K57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="L57" s="3">
         <v>699000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>819000</v>
       </c>
       <c r="M57" s="3">
         <v>819000</v>
@@ -3308,323 +3439,341 @@
         <v>819000</v>
       </c>
       <c r="O57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="P57" s="3">
         <v>797000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>807000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>695000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>666000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>615000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>625000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E58" s="3">
         <v>496000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>958000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1045000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>749000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>496000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>368000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>319000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>743000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>561000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>229000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>366000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>425000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>326000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>435000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>384000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>107000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>118000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E59" s="3">
         <v>680000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>752000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>618000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>455000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>478000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>401000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>325000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>380000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>399000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>484000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>425000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>380000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>426000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>420000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>374000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>293000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>334000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1973000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2409000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2262000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1928000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1754000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1533000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1408000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1822000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1779000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1532000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1610000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1602000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1559000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1550000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1424000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1015000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1077000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3227000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3140000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2989000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3356000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3409000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3359000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3444000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2933000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2970000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3196000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3228000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3343000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3315000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2954000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2931000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2851000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2890000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1814000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1336000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1386000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1425000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1415000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1383000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1380000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1185000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1153000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1164000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1170000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1365000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1423000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1406000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1381000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1369000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7214000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7383000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7261000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7019000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7097000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6969000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6667000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6642000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6527000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6329000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6283000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6409000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6527000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6651000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6347000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6189000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5677000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5769000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>8335000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8091000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6710000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6576000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6543000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6399000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6431000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6245000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6114000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5847000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5819000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5491000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5220000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4920000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4781000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4617000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4451000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4320000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3542000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3526000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2508000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2487000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2448000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2507000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2747000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2864000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3047000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2984000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3541000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3380000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3253000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2715000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2694000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2611000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2588000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1453000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>207000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>107000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>218000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>263000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>209000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>337000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>401000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>344000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>363000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>203000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>226000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>231000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>183000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>160000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,8 +4816,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4627,58 +4826,61 @@
         <v>91000</v>
       </c>
       <c r="E83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F83" s="3">
         <v>90000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>86000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>86000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>90000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>88000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>72000</v>
       </c>
       <c r="T83" s="3">
         <v>72000</v>
       </c>
       <c r="U83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="V83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E89" s="3">
         <v>274000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>431000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>379000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>259000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>326000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>397000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>424000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>307000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>363000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>467000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>585000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>143000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>58000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>255000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>298000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>192000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-47000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-119000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-144000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-82000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-79000</v>
       </c>
       <c r="N91" s="3">
         <v>-79000</v>
       </c>
       <c r="O91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-86000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-64000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E94" s="3">
         <v>979000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-181000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-128000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-168000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-66000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-177000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-235000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-325000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-247000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,67 +5546,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-72000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-74000</v>
       </c>
       <c r="G96" s="3">
         <v>-74000</v>
       </c>
       <c r="H96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-75000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-77000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-78000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-73000</v>
       </c>
       <c r="N96" s="3">
         <v>-73000</v>
       </c>
       <c r="O96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="P96" s="3">
         <v>-63000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-62000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-51000</v>
       </c>
       <c r="T96" s="3">
         <v>-51000</v>
       </c>
       <c r="U96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-933000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-290000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-232000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-199000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-299000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-307000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-130000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-526000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-383000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-254000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>145000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-247000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-270000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-292000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-28000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E102" s="3">
         <v>340000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>76000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>107000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-264000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>218000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-86000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-137000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-614000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1798000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1591000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1411000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1193000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1460000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1432000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1586000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1592000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1687000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1689000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1771000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1844000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1593000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1566000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1510000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1471000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1311000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1313000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1215000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1084000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>951000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1116000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1172000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1169000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1234000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1269000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1255000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1323000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1180000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1183000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1145000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1121000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>989000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E10" s="3">
         <v>485000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>327000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>242000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>348000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>316000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>414000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>423000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>453000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>420000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>516000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>521000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>515000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>413000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>383000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>365000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>350000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>322000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,25 +973,26 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E12" s="3">
         <v>20000</v>
       </c>
       <c r="F12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>17000</v>
       </c>
       <c r="I12" s="3">
         <v>17000</v>
@@ -990,10 +1004,10 @@
         <v>17000</v>
       </c>
       <c r="L12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="M12" s="3">
         <v>16000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>18000</v>
       </c>
       <c r="N12" s="3">
         <v>18000</v>
@@ -1005,25 +1019,28 @@
         <v>18000</v>
       </c>
       <c r="Q12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R12" s="3">
         <v>20000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>17000</v>
       </c>
       <c r="T12" s="3">
         <v>17000</v>
       </c>
       <c r="U12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="V12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,90 +1101,96 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>102000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>98000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6000</v>
       </c>
       <c r="G15" s="3">
         <v>6000</v>
       </c>
       <c r="H15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I15" s="3">
         <v>5000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
       </c>
       <c r="J15" s="3">
         <v>6000</v>
@@ -1182,34 +1205,37 @@
         <v>6000</v>
       </c>
       <c r="N15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O15" s="3">
         <v>5000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>6000</v>
       </c>
       <c r="Q15" s="3">
         <v>6000</v>
       </c>
       <c r="R15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="S15" s="3">
         <v>5000</v>
       </c>
       <c r="T15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U15" s="3">
         <v>4000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1631000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1472000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-20000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1227000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1110000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1266000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1364000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1326000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1406000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1367000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1430000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1397000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1486000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1508000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1353000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1337000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1292000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1301000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1194000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E18" s="3">
         <v>326000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1611000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>184000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>83000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>194000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>260000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>186000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>320000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>259000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>374000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>358000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>343000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>240000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>229000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>218000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>170000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>117000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E20" s="3">
         <v>108000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>85000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>91000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>126000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>90000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>96000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>118000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>122000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>56000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>92000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>93000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>99000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>68000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E21" s="3">
         <v>525000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1688000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>359000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>263000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>406000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>445000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>358000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>582000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>562000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>545000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>375000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>403000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>388000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>341000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>257000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>28000</v>
       </c>
       <c r="I22" s="3">
         <v>28000</v>
       </c>
       <c r="J22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>31000</v>
       </c>
       <c r="M22" s="3">
         <v>31000</v>
       </c>
       <c r="N22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="O22" s="3">
         <v>30000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>30000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>29000</v>
       </c>
       <c r="U22" s="3">
         <v>29000</v>
       </c>
       <c r="V22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="W22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E23" s="3">
         <v>409000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1571000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>241000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>292000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>41000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>323000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>239000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>385000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>462000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>442000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>432000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>265000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>289000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>240000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>156000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E24" s="3">
         <v>85000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>117000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>56000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E26" s="3">
         <v>324000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1454000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>211000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>112000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>227000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>270000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>211000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>339000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>102000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>397000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>345000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>295000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>232000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>241000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>184000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>161000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E27" s="3">
         <v>323000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1453000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>209000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>110000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>225000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>268000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>338000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>396000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>344000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>365000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>294000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>230000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>239000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>183000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>160000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,34 +1993,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-7000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-1000</v>
       </c>
       <c r="L29" s="3">
         <v>-1000</v>
@@ -1971,34 +2032,37 @@
         <v>-1000</v>
       </c>
       <c r="N29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O29" s="3">
         <v>5000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-91000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-8000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-108000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-85000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-91000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-126000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-90000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-96000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-118000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-56000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-92000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-93000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-99000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-68000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E33" s="3">
         <v>322000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1453000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>207000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>107000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>218000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>263000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>209000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>337000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>401000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>344000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>363000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>203000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>226000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>231000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>183000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>160000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E35" s="3">
         <v>322000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1453000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>207000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>107000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>218000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>263000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>209000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>337000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>401000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>344000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>363000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>203000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>226000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>231000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>183000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>160000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,108 +2570,112 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E41" s="3">
         <v>791000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>955000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>615000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>539000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>570000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>463000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>497000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>491000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>439000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>703000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>708000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>490000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>576000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>461000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>511000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>501000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>638000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E42" s="3">
         <v>331000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>533000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>35000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>38000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>31000</v>
       </c>
       <c r="N42" s="3">
         <v>31000</v>
       </c>
       <c r="O42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="P42" s="3">
         <v>32000</v>
@@ -2594,456 +2684,480 @@
         <v>32000</v>
       </c>
       <c r="R42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S42" s="3">
         <v>31000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1788000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1510000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1242000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1063000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1041000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1160000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1181000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1282000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1303000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1358000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1318000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1365000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1445000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1476000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1230000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1249000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1212000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1102000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1024000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1025000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>978000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1001000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1031000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1036000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1038000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>994000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1011000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1009000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1046000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1033000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>917000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>955000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>809000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>771000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>717000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>720000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E45" s="3">
         <v>53000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>44000</v>
       </c>
       <c r="K45" s="3">
         <v>44000</v>
       </c>
       <c r="L45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="M45" s="3">
         <v>47000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4061000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3710000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3763000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2771000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2709000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2855000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2765000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2843000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2876000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2884000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2874000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3180000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3153000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3006000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2792000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2613000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2583000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2389000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2472000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E47" s="3">
         <v>796000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>820000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>993000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>957000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>981000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>975000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>970000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>959000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>950000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>979000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>981000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>963000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>979000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>976000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>938000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>885000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>874000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>852000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4137000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4097000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4171000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4061000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3926000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3879000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3916000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3791000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3851000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3931000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3719000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3699000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3724000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3801000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3762000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3706000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3663000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3571000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3577000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1442000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1485000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1445000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1415000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1358000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1386000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1368000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1410000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1407000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1367000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1381000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1394000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1443000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1304000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1298000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1277000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>992000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>990000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E52" s="3">
         <v>711000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>670000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>499000</v>
       </c>
       <c r="G52" s="3">
         <v>499000</v>
       </c>
       <c r="H52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="I52" s="3">
         <v>472000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>434000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>442000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>410000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>402000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>374000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>583000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>555000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>551000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>704000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>507000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>475000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>462000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>466000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11220000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10756000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10909000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9769000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9506000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9545000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9476000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9414000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9506000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9574000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9313000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9824000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9789000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9780000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9538000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9062000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8883000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8288000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8357000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,40 +3530,41 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E57" s="3">
         <v>906000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>797000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>699000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>599000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>724000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>780000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>764000</v>
       </c>
       <c r="K57" s="3">
         <v>764000</v>
       </c>
       <c r="L57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="M57" s="3">
         <v>699000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>819000</v>
       </c>
       <c r="N57" s="3">
         <v>819000</v>
@@ -3442,338 +3573,356 @@
         <v>819000</v>
       </c>
       <c r="P57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>797000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>807000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>695000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>666000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>615000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>625000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="3">
         <v>497000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>496000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>958000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1045000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>749000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>496000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>368000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>319000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>743000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>561000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>229000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>366000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>425000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>326000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>435000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>384000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>107000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>118000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E59" s="3">
         <v>532000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>680000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>752000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>618000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>455000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>478000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>401000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>325000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>380000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>399000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>484000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>425000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>380000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>426000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>420000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>374000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>293000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>334000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1935000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1973000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2409000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2262000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1928000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1754000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1533000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1408000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1822000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1779000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1532000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1610000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1602000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1559000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1550000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1424000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1015000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1077000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3156000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3227000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3140000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2989000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3356000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3409000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3359000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3444000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2933000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2970000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3196000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3228000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3343000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3315000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2954000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2931000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2851000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2890000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1779000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1814000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1336000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1386000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1425000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1415000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1383000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1380000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1185000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1153000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1164000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1170000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1365000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1423000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1406000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1381000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1369000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7422000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7214000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7383000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7261000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7019000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7097000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6969000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6667000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6642000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6527000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6329000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6283000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6409000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6527000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6651000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6347000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6189000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5677000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5769000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>8797000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8335000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8091000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6710000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6576000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6543000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6399000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6431000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6245000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6114000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5847000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5819000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5491000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5220000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4920000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4781000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4617000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4451000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4320000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3798000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3542000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3526000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2508000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2487000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2448000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2507000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2747000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2864000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3047000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2984000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3541000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3380000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3253000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2887000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2715000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2694000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2611000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2588000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E81" s="3">
         <v>322000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1453000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>207000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>107000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>218000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>263000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>209000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>337000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>401000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>344000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>363000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>203000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>226000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>231000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>183000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>160000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>91000</v>
+        <v>93000</v>
       </c>
       <c r="E83" s="3">
         <v>91000</v>
       </c>
       <c r="F83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="G83" s="3">
         <v>90000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>91000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>95000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>91000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>90000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>88000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>79000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>72000</v>
       </c>
       <c r="U83" s="3">
         <v>72000</v>
       </c>
       <c r="V83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="W83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E89" s="3">
         <v>116000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>274000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>431000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>379000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>259000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>326000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>424000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>307000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>363000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>467000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>585000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>143000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>58000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>255000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>298000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>192000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-47000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-119000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-144000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-82000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-79000</v>
       </c>
       <c r="O91" s="3">
         <v>-79000</v>
       </c>
       <c r="P91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-87000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-64000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-62000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E94" s="3">
         <v>98000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>979000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-181000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-128000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-168000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-66000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-177000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-235000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-92000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-68000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-325000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-247000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,70 +5780,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-78000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-72000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-74000</v>
       </c>
       <c r="H96" s="3">
         <v>-74000</v>
       </c>
       <c r="I96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-75000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-77000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-78000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-73000</v>
       </c>
       <c r="O96" s="3">
         <v>-73000</v>
       </c>
       <c r="P96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="Q96" s="3">
         <v>-63000</v>
       </c>
       <c r="R96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-62000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-51000</v>
       </c>
       <c r="U96" s="3">
         <v>-51000</v>
       </c>
       <c r="V96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-371000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-933000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-290000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-232000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-199000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-299000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-307000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-130000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-526000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-383000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-254000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>145000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-247000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-270000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-292000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-164000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>340000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>76000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>107000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-264000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>218000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>115000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-137000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-614000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2198000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1798000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1591000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1411000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1193000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1460000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1432000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1586000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1592000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1687000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1689000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1771000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1844000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1851000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1593000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1566000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1510000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1471000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1311000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1437000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1313000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1215000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1084000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>951000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1116000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1172000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1169000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1234000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1269000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1255000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1323000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1336000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1180000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1183000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1145000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1121000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>989000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>715000</v>
+      </c>
+      <c r="E10" s="3">
         <v>761000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>485000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>327000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>242000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>348000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>316000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>414000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>423000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>453000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>420000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>516000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>521000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>515000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>413000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>383000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>365000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>350000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>322000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,28 +987,29 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20000</v>
       </c>
       <c r="F12" s="3">
         <v>20000</v>
       </c>
       <c r="G12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>17000</v>
       </c>
       <c r="J12" s="3">
         <v>17000</v>
@@ -1007,10 +1021,10 @@
         <v>17000</v>
       </c>
       <c r="M12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N12" s="3">
         <v>16000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>18000</v>
       </c>
       <c r="O12" s="3">
         <v>18000</v>
@@ -1022,25 +1036,28 @@
         <v>18000</v>
       </c>
       <c r="R12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S12" s="3">
         <v>20000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>17000</v>
       </c>
       <c r="U12" s="3">
         <v>17000</v>
       </c>
       <c r="V12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="W12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,96 +1121,102 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>102000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>98000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>55000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6000</v>
       </c>
       <c r="H15" s="3">
         <v>6000</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
         <v>5000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6000</v>
       </c>
       <c r="K15" s="3">
         <v>6000</v>
@@ -1208,34 +1231,37 @@
         <v>6000</v>
       </c>
       <c r="O15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P15" s="3">
         <v>5000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6000</v>
       </c>
       <c r="R15" s="3">
         <v>6000</v>
       </c>
       <c r="S15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="T15" s="3">
         <v>5000</v>
       </c>
       <c r="U15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V15" s="3">
         <v>4000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1730000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1631000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1472000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-20000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1227000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1110000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1266000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1364000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1326000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1406000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1367000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1430000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1397000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1486000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1508000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1353000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1337000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1292000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1301000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1194000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E18" s="3">
         <v>567000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>326000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1611000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>184000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>83000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>194000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>260000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>186000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>320000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>374000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>358000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>343000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>240000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>229000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>218000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>170000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>117000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E20" s="3">
         <v>117000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>108000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>85000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>91000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>126000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>90000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>118000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>122000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>56000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>92000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>93000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>99000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>68000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E21" s="3">
         <v>777000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>525000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1688000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>359000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>263000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>406000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>445000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>358000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>296000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>582000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>562000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>545000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>375000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>403000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>388000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>341000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>257000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>28000</v>
       </c>
       <c r="J22" s="3">
         <v>28000</v>
       </c>
       <c r="K22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>31000</v>
       </c>
       <c r="N22" s="3">
         <v>31000</v>
       </c>
       <c r="O22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="P22" s="3">
         <v>30000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>31000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>30000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>29000</v>
       </c>
       <c r="V22" s="3">
         <v>29000</v>
       </c>
       <c r="W22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="X22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E23" s="3">
         <v>660000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>409000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1571000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>241000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>292000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>41000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>323000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>239000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>385000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>174000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>462000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>442000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>432000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>265000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>289000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>281000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>240000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>156000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>116000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>117000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>56000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E26" s="3">
         <v>544000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>324000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1454000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>211000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>112000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>227000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>211000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>339000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>102000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>397000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>345000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>367000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>295000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>232000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>241000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>184000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>161000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E27" s="3">
         <v>542000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>323000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1453000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>209000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>110000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>225000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>268000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>210000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>338000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>396000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>344000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>365000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>294000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>230000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>239000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>183000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>160000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,37 +2054,40 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-1000</v>
       </c>
       <c r="M29" s="3">
         <v>-1000</v>
@@ -2035,34 +2096,37 @@
         <v>-1000</v>
       </c>
       <c r="O29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P29" s="3">
         <v>5000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-91000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-8000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-117000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-108000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-85000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-91000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-126000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-90000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-118000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-122000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-56000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-92000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-93000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-99000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-68000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E33" s="3">
         <v>538000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>322000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1453000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>107000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>218000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>263000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>209000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>337000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>401000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>344000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>363000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>203000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>226000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>231000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>183000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>160000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E35" s="3">
         <v>538000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>322000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1453000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>107000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>218000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>263000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>209000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>337000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>401000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>344000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>363000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>203000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>226000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>231000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>183000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>160000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,114 +2657,118 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1054000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>791000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>955000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>615000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>539000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>570000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>463000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>491000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>441000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>439000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>703000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>708000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>490000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>576000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>461000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>511000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>501000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>638000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E42" s="3">
         <v>29000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>331000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>533000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>31000</v>
       </c>
       <c r="O42" s="3">
         <v>31000</v>
       </c>
       <c r="P42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="Q42" s="3">
         <v>32000</v>
@@ -2687,477 +2777,501 @@
         <v>32000</v>
       </c>
       <c r="S42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T42" s="3">
         <v>31000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1788000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1510000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1242000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1063000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1041000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1160000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1181000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1282000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1303000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1358000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1318000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1365000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1476000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1230000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1249000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1212000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1102000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1024000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1118000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1025000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>978000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1001000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1031000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1036000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1038000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>994000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1011000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1009000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1046000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1033000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>917000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>955000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>809000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>771000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>717000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>720000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>44000</v>
       </c>
       <c r="L45" s="3">
         <v>44000</v>
       </c>
       <c r="M45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="N45" s="3">
         <v>47000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>38000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4355000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4061000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3710000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3763000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2771000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2709000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2855000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2765000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2843000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2876000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2884000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2874000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3180000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3153000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3006000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2792000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2613000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2583000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2389000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2472000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E47" s="3">
         <v>818000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>796000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>820000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>993000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>957000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>981000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>975000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>970000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>959000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>950000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>979000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>981000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>963000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>979000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>976000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>938000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>885000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>874000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>852000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4155000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4137000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4097000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4171000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4061000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3926000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3879000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3916000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3791000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3851000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3931000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3719000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3699000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3724000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3801000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3762000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3706000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3663000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3571000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3577000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1447000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1442000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1485000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1445000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1415000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1358000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1386000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1368000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1410000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1407000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1367000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1381000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1394000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1443000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1304000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1298000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1277000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>992000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>990000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E52" s="3">
         <v>757000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>711000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>670000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>499000</v>
       </c>
       <c r="H52" s="3">
         <v>499000</v>
       </c>
       <c r="I52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="J52" s="3">
         <v>472000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>434000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>442000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>410000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>402000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>374000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>583000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>555000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>551000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>704000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>507000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>475000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>462000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>466000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11583000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11220000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10756000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10909000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9769000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9506000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9545000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9476000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9414000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9506000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9574000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9313000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9824000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9789000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9780000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9538000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9062000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8883000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8288000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8357000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,43 +3661,44 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E57" s="3">
         <v>998000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>906000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>797000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>699000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>599000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>724000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>780000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>764000</v>
       </c>
       <c r="L57" s="3">
         <v>764000</v>
       </c>
       <c r="M57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="N57" s="3">
         <v>699000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>819000</v>
       </c>
       <c r="O57" s="3">
         <v>819000</v>
@@ -3576,353 +3707,371 @@
         <v>819000</v>
       </c>
       <c r="Q57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="R57" s="3">
         <v>797000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>807000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>695000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>666000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>615000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>625000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E58" s="3">
         <v>500000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>497000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>496000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>958000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1045000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>749000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>496000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>368000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>319000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>743000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>561000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>229000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>366000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>425000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>326000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>435000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>384000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>107000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>118000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E59" s="3">
         <v>631000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>532000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>680000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>752000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>618000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>455000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>478000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>401000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>325000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>380000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>399000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>484000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>425000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>380000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>426000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>420000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>374000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>293000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>334000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1935000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1973000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2409000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2262000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1928000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1754000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1533000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1408000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1822000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1779000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1532000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1610000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1602000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1559000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1550000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1424000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1015000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1077000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3156000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3227000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3140000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2989000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3356000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3409000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3359000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3444000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2933000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2970000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3196000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3228000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3343000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3315000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2954000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2931000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2851000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2890000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1778000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1779000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1814000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1336000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1386000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1425000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1415000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1383000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1380000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1185000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1153000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1164000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1170000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1365000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1423000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1406000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1381000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1369000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7664000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7422000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7214000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7383000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7261000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7019000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7097000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6969000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6667000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6642000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6527000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6329000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6283000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6409000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6527000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6651000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6347000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6189000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5677000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5769000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>9227000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8797000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8335000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8091000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6710000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6576000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6543000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6399000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6431000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6245000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6114000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5847000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5819000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5491000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5220000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4920000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4781000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4617000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4451000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4320000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3919000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3798000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3542000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3526000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2508000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2487000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2448000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2747000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2864000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3047000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2984000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3541000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3380000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3253000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2887000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2715000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2694000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2611000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2588000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E81" s="3">
         <v>538000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>322000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1453000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>107000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>218000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>263000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>209000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>337000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>401000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>344000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>363000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>203000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>226000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>231000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>183000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>160000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>91000</v>
       </c>
       <c r="F83" s="3">
         <v>91000</v>
       </c>
       <c r="G83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="H83" s="3">
         <v>90000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>89000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>91000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>91000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>90000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>88000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>79000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>82000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>77000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>72000</v>
       </c>
       <c r="V83" s="3">
         <v>72000</v>
       </c>
       <c r="W83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="X83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E89" s="3">
         <v>427000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>116000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>274000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>431000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>379000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>259000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>326000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>424000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>307000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>363000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>467000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>585000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>143000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>58000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>255000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>298000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>192000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-47000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-144000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-79000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-79000</v>
       </c>
       <c r="P91" s="3">
         <v>-79000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-86000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-87000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-64000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-62000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E94" s="3">
         <v>177000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>98000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>979000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-181000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-128000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-168000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-66000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-177000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-98000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-235000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-92000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-68000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-325000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-64000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-247000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5790,64 +6024,67 @@
         <v>-76000</v>
       </c>
       <c r="E96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-78000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-72000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-74000</v>
       </c>
       <c r="I96" s="3">
         <v>-74000</v>
       </c>
       <c r="J96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-75000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-78000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-73000</v>
       </c>
       <c r="P96" s="3">
         <v>-73000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="R96" s="3">
         <v>-63000</v>
       </c>
       <c r="S96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-62000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-51000</v>
       </c>
       <c r="V96" s="3">
         <v>-51000</v>
       </c>
       <c r="W96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-344000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-371000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-933000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-290000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-232000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-199000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-299000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-307000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-130000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-526000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-383000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-254000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>145000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-247000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-270000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-292000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-28000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E102" s="3">
         <v>263000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-164000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>340000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>76000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-264000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>218000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-86000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>115000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-50000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-137000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-614000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +662,320 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2266000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2198000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1798000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1591000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1411000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1193000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1460000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1432000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1586000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1592000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1687000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1689000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1771000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1844000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1851000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1593000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1566000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1510000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1471000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1311000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1551000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1437000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1313000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1215000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1084000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>951000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1116000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1172000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1169000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1234000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1269000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1323000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1336000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1180000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1183000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1145000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1121000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>989000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E10" s="3">
         <v>715000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>761000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>485000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>327000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>242000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>348000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>316000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>414000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>423000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>453000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>420000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>516000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>521000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>515000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>413000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>383000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>365000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>350000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>322000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,31 +1000,32 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>21000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20000</v>
       </c>
       <c r="G12" s="3">
         <v>20000</v>
       </c>
       <c r="H12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="3">
         <v>19000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>17000</v>
       </c>
       <c r="K12" s="3">
         <v>17000</v>
@@ -1024,10 +1037,10 @@
         <v>17000</v>
       </c>
       <c r="N12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O12" s="3">
         <v>16000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>18000</v>
       </c>
       <c r="P12" s="3">
         <v>18000</v>
@@ -1039,25 +1052,28 @@
         <v>18000</v>
       </c>
       <c r="S12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="T12" s="3">
         <v>20000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>17000</v>
       </c>
       <c r="V12" s="3">
         <v>17000</v>
       </c>
       <c r="W12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="X12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1140,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,93 +1152,96 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>102000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>98000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>55000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6000</v>
       </c>
       <c r="I15" s="3">
         <v>6000</v>
       </c>
       <c r="J15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6000</v>
       </c>
       <c r="L15" s="3">
         <v>6000</v>
@@ -1234,34 +1256,37 @@
         <v>6000</v>
       </c>
       <c r="P15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6000</v>
       </c>
       <c r="S15" s="3">
         <v>6000</v>
       </c>
       <c r="T15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="U15" s="3">
         <v>5000</v>
       </c>
       <c r="V15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W15" s="3">
         <v>4000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1730000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1631000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1472000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-20000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1227000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1110000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1266000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1364000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1326000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1406000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1367000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1430000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1397000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1486000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1508000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1353000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1337000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1292000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1301000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1194000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E18" s="3">
         <v>536000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>567000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>326000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1611000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>184000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>83000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>194000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>260000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>186000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>320000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>259000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>374000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>358000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>343000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>240000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>229000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>218000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>170000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>117000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,348 +1477,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E20" s="3">
         <v>116000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>117000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>108000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>85000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>91000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>126000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>90000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>96000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>118000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>116000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>122000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>56000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>92000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>93000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>99000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>68000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E21" s="3">
         <v>746000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>777000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>525000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1688000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>359000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>263000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>406000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>445000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>358000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>296000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>582000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>562000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>545000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>375000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>403000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>388000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>341000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>257000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>28000</v>
       </c>
       <c r="K22" s="3">
         <v>28000</v>
       </c>
       <c r="L22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="M22" s="3">
         <v>27000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>31000</v>
       </c>
       <c r="O22" s="3">
         <v>31000</v>
       </c>
       <c r="P22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>30000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>31000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>29000</v>
       </c>
       <c r="W22" s="3">
         <v>29000</v>
       </c>
       <c r="X22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E23" s="3">
         <v>622000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>660000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>409000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1571000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>241000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>292000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>41000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>323000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>239000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>385000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>174000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>462000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>442000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>432000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>265000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>289000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>281000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>240000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>156000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
         <v>102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>116000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>117000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>56000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E26" s="3">
         <v>520000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>544000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>324000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1454000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>211000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>112000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>227000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>339000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>102000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>397000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>345000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>367000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>295000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>232000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>241000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>184000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>161000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E27" s="3">
         <v>519000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>542000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>323000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1453000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>209000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>110000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>225000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>268000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>210000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>338000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>396000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>344000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>365000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>294000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>230000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>239000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>183000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>160000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,40 +2114,43 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-13000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-7000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-1000</v>
       </c>
       <c r="N29" s="3">
         <v>-1000</v>
@@ -2099,34 +2159,37 @@
         <v>-1000</v>
       </c>
       <c r="P29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-91000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-8000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-116000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-117000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-108000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-85000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-91000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-126000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-90000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-96000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-116000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-122000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-56000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-92000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-93000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-99000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-68000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E33" s="3">
         <v>506000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>538000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>322000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1453000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>218000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>263000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>209000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>337000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>401000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>344000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>363000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>203000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>226000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>231000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>183000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>160000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E35" s="3">
         <v>506000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>538000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>322000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1453000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>218000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>263000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>209000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>337000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>401000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>344000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>363000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>203000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>226000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>231000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>183000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>160000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,120 +2743,124 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1340000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1054000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>791000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>955000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>615000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>539000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>570000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>463000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>497000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>491000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>441000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>439000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>703000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>708000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>490000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>576000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>461000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>511000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>501000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>638000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
         <v>28000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>331000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>533000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>35000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>31000</v>
       </c>
       <c r="P42" s="3">
         <v>31000</v>
       </c>
       <c r="Q42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="R42" s="3">
         <v>32000</v>
@@ -2780,498 +2869,522 @@
         <v>32000</v>
       </c>
       <c r="T42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="U42" s="3">
         <v>31000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>31000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>30000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1667000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1738000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1788000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1510000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1242000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1063000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1041000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1160000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1181000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1282000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1303000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1358000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1318000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1365000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1445000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1476000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1230000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1249000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1212000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1102000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1024000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1159000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1118000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1025000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>978000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1001000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1031000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1036000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1038000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>994000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1011000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1009000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1046000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>917000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>955000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>809000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>771000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>717000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>720000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E45" s="3">
         <v>90000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>44000</v>
       </c>
       <c r="M45" s="3">
         <v>44000</v>
       </c>
       <c r="N45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="O45" s="3">
         <v>47000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>38000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>60000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3807000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4355000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4061000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3710000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3763000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2771000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2709000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2855000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2765000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2843000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2876000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2884000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2874000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3180000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3153000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3006000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2792000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2613000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2583000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2389000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2472000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E47" s="3">
         <v>842000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>818000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>796000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>820000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>993000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>957000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>981000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>975000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>970000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>959000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>950000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>979000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>981000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>963000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>979000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>976000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>938000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>885000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>874000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>852000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4429000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4155000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4137000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4097000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4171000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4061000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3926000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3879000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3916000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3791000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3851000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3931000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3719000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3699000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3724000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3801000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3762000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3706000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3663000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3571000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3577000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1434000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1447000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1442000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1485000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1445000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1415000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1358000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1386000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1368000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1410000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1407000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1367000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1381000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1394000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1443000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1304000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1298000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1277000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>992000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>990000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>769000</v>
+      </c>
+      <c r="E52" s="3">
         <v>797000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>757000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>711000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>670000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>499000</v>
       </c>
       <c r="I52" s="3">
         <v>499000</v>
       </c>
       <c r="J52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="K52" s="3">
         <v>472000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>434000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>442000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>410000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>402000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>374000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>583000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>555000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>551000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>704000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>507000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>475000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>462000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>466000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11975000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11583000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11220000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10756000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10909000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9769000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9506000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9545000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9476000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9414000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9506000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9574000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9313000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9824000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9789000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9780000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9538000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9062000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8883000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8288000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8357000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,46 +3791,47 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1042000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>998000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>906000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>797000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>699000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>599000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>724000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>780000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>764000</v>
       </c>
       <c r="M57" s="3">
         <v>764000</v>
       </c>
       <c r="N57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="O57" s="3">
         <v>699000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>819000</v>
       </c>
       <c r="P57" s="3">
         <v>819000</v>
@@ -3710,368 +3840,386 @@
         <v>819000</v>
       </c>
       <c r="R57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="S57" s="3">
         <v>797000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>807000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>695000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>666000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>615000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>625000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>791000</v>
+      </c>
+      <c r="E58" s="3">
         <v>103000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>497000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>496000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>958000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1045000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>749000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>496000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>368000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>319000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>743000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>561000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>229000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>366000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>425000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>326000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>435000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>384000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>107000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>118000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E59" s="3">
         <v>667000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>631000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>532000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>680000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>752000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>618000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>455000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>478000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>401000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>325000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>380000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>399000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>484000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>425000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>380000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>426000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>420000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>374000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>293000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>334000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2505000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1812000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2129000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1935000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1973000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2409000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2262000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1928000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1754000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1533000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1408000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1822000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1779000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1532000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1610000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1602000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1559000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1550000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1424000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1015000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1077000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3176000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3724000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3156000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3135000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3227000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3140000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2989000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3356000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3409000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3359000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3444000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2933000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2970000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3196000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3228000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3343000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3315000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2954000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2931000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2851000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2890000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1776000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1778000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1779000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1814000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1336000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1386000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1425000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1415000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1383000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1380000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1185000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1153000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1164000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1170000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1365000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1423000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1406000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1381000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1369000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7786000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7664000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7422000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7214000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7383000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7261000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7019000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7097000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6969000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6667000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6642000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6527000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6329000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6283000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6409000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6527000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6651000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6347000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6189000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5677000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5769000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>9677000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9227000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8797000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8335000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8091000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6710000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6576000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6543000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6399000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6431000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6245000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6114000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5847000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5819000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5491000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5220000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4920000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4781000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4617000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4451000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4320000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4189000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3919000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3798000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3542000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3526000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2508000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2487000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2448000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2747000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2864000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3047000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2984000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3541000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3380000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3253000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2887000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2715000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2694000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2611000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2588000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E81" s="3">
         <v>506000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>538000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>322000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1453000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>218000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>263000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>209000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>337000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>401000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>344000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>363000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>203000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>226000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>231000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>183000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>160000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>91000</v>
       </c>
       <c r="G83" s="3">
         <v>91000</v>
       </c>
       <c r="H83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="I83" s="3">
         <v>90000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>86000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>95000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>91000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>90000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>88000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>80000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>79000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>82000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>77000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>72000</v>
       </c>
       <c r="W83" s="3">
         <v>72000</v>
       </c>
       <c r="X83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E89" s="3">
         <v>630000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>427000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>116000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>274000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>431000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>379000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>259000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>326000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>397000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>424000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>307000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>363000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>467000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>585000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>143000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>255000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>298000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>192000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-47000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-92000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-88000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-144000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-79000</v>
       </c>
       <c r="Q91" s="3">
         <v>-79000</v>
       </c>
       <c r="R91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-86000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-64000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-54000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-62000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1286000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>177000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>98000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>979000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-181000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-128000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-168000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-82000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-66000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-177000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-96000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-235000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-92000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-68000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-325000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-64000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-247000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,76 +6247,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-76000</v>
+        <v>-74000</v>
       </c>
       <c r="E96" s="3">
         <v>-76000</v>
       </c>
       <c r="F96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-78000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-72000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-74000</v>
       </c>
       <c r="J96" s="3">
         <v>-74000</v>
       </c>
       <c r="K96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-75000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-78000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-70000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-73000</v>
       </c>
       <c r="Q96" s="3">
         <v>-73000</v>
       </c>
       <c r="R96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="S96" s="3">
         <v>-63000</v>
       </c>
       <c r="T96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-62000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-51000</v>
       </c>
       <c r="W96" s="3">
         <v>-51000</v>
       </c>
       <c r="X96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-228000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-344000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-371000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-933000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-290000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-232000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-199000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-299000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-307000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-130000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-526000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-383000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-254000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>145000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-247000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-270000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-292000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>16000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-28000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-804000</v>
+      </c>
+      <c r="E102" s="3">
         <v>286000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>263000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-164000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>340000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>76000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>107000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-264000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>218000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>115000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-50000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-137000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-614000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,320 +665,333 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2538000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2275000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2266000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2198000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1798000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1591000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1411000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1193000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1460000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1432000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1586000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1592000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1687000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1689000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1771000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1844000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1851000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1593000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1566000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1510000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1471000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1311000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1554000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1551000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1437000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1313000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1215000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1084000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>951000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1116000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1172000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1169000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1234000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1255000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1323000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1336000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1180000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1183000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1145000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1121000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>989000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E10" s="3">
         <v>721000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>715000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>761000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>485000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>327000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>242000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>348000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>316000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>414000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>423000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>453000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>420000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>516000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>521000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>515000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>413000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>383000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>365000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>350000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>322000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,34 +1017,35 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20000</v>
       </c>
       <c r="H12" s="3">
         <v>20000</v>
       </c>
       <c r="I12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>17000</v>
       </c>
       <c r="L12" s="3">
         <v>17000</v>
@@ -1040,10 +1057,10 @@
         <v>17000</v>
       </c>
       <c r="O12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P12" s="3">
         <v>16000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>18000</v>
       </c>
       <c r="Q12" s="3">
         <v>18000</v>
@@ -1055,25 +1072,28 @@
         <v>18000</v>
       </c>
       <c r="T12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U12" s="3">
         <v>20000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>17000</v>
       </c>
       <c r="W12" s="3">
         <v>17000</v>
       </c>
       <c r="X12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Y12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,108 +1163,114 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>102000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>98000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>55000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
       </c>
       <c r="J15" s="3">
         <v>6000</v>
       </c>
       <c r="K15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L15" s="3">
         <v>5000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6000</v>
       </c>
       <c r="M15" s="3">
         <v>6000</v>
@@ -1259,34 +1285,37 @@
         <v>6000</v>
       </c>
       <c r="Q15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R15" s="3">
         <v>5000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6000</v>
       </c>
       <c r="T15" s="3">
         <v>6000</v>
       </c>
       <c r="U15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="V15" s="3">
         <v>5000</v>
       </c>
       <c r="W15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X15" s="3">
         <v>4000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2007000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1730000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1631000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1472000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-20000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1227000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1110000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1266000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1364000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1326000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1406000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1367000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1430000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1397000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1486000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1508000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1353000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1337000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1292000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1301000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1194000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E18" s="3">
         <v>517000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>536000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>567000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>326000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1611000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>184000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>83000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>194000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>260000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>186000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>320000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>259000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>374000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>358000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>343000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>240000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>229000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>218000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>170000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>117000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="3">
         <v>61000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>116000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>117000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>108000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>85000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>91000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>126000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>86000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>96000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>118000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>116000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>122000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>56000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>92000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>93000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>99000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>68000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E21" s="3">
         <v>678000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>746000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>777000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>525000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1688000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>359000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>263000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>406000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>445000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>358000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>296000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>582000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>562000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>545000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>375000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>403000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>388000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>341000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>257000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E22" s="3">
         <v>21000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>30000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>28000</v>
       </c>
       <c r="L22" s="3">
         <v>28000</v>
       </c>
       <c r="M22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N22" s="3">
         <v>27000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>31000</v>
       </c>
       <c r="P22" s="3">
         <v>31000</v>
       </c>
       <c r="Q22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="R22" s="3">
         <v>30000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>31000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>30000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>29000</v>
       </c>
       <c r="X22" s="3">
         <v>29000</v>
       </c>
       <c r="Y22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>616000</v>
+      </c>
+      <c r="E23" s="3">
         <v>557000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>622000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>660000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>409000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1571000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>241000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>147000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>292000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>323000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>239000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>385000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>174000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>462000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>442000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>432000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>265000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>289000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>281000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>240000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>156000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>116000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>117000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>56000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E26" s="3">
         <v>530000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>520000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>544000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>324000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1454000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>211000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>112000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>227000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>211000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>339000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>102000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>397000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>345000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>367000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>295000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>232000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>241000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>184000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>161000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E27" s="3">
         <v>528000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>519000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>542000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>323000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1453000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>209000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>225000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>268000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>210000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>338000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>396000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>344000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>365000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>294000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>230000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>239000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>183000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>160000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,43 +2178,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-13000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-3000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-1000</v>
       </c>
       <c r="O29" s="3">
         <v>-1000</v>
@@ -2162,34 +2226,37 @@
         <v>-1000</v>
       </c>
       <c r="Q29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R29" s="3">
         <v>5000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-91000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-8000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2259,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-61000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-116000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-117000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-108000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-85000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-91000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-126000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-86000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-96000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-118000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-116000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-122000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-56000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-92000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-93000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-99000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E33" s="3">
         <v>524000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>506000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>538000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>322000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1453000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>218000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>263000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>209000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>337000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>401000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>344000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>363000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>203000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>226000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>231000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>183000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>160000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E35" s="3">
         <v>524000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>506000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>538000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>322000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1453000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>218000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>263000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>209000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>337000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>401000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>344000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>363000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>203000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>226000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>231000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>183000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>160000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2717,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,126 +2833,130 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>536000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1340000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1054000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>791000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>955000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>615000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>539000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>570000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>463000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>497000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>491000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>441000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>439000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>703000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>708000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>490000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>576000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>461000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>511000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>501000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>638000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>28000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>331000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>533000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>35000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>36000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29000</v>
-      </c>
-      <c r="P42" s="3">
-        <v>31000</v>
       </c>
       <c r="Q42" s="3">
         <v>31000</v>
       </c>
       <c r="R42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="S42" s="3">
         <v>32000</v>
@@ -2872,519 +2965,543 @@
         <v>32000</v>
       </c>
       <c r="U42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V42" s="3">
         <v>31000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>31000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>30000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1667000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1738000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1788000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1510000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1242000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1063000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1041000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1160000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1181000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1282000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1303000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1358000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1365000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1445000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1476000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1230000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1249000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1212000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1102000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1024000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1524000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1159000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1118000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1025000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>978000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1001000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1031000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1036000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1038000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>994000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1011000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1009000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1033000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>917000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>955000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>900000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>809000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>771000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>717000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>720000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E45" s="3">
         <v>70000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>53000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>57000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>44000</v>
       </c>
       <c r="N45" s="3">
         <v>44000</v>
       </c>
       <c r="O45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="P45" s="3">
         <v>47000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>54000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>60000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3807000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4355000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4061000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3710000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3763000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2771000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2709000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2855000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2765000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2843000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2876000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2884000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2874000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3180000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3153000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3006000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2792000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2613000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2583000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2389000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2472000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E47" s="3">
         <v>823000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>842000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>818000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>796000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>820000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>993000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>957000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>981000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>975000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>970000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>959000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>950000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>979000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>981000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>963000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>979000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>976000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>938000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>885000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>874000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>852000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4455000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4429000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4155000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4137000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4097000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4171000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4061000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3926000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3879000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3916000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3791000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3851000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3931000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3719000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3699000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3724000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3801000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3762000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3706000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3663000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3571000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3577000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2111000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2147000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1434000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1447000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1442000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1485000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1445000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1415000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1358000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1386000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1368000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1410000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1407000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1367000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1381000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1394000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1443000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1304000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1298000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1277000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>992000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>990000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E52" s="3">
         <v>769000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>797000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>757000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>711000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>670000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>499000</v>
       </c>
       <c r="J52" s="3">
         <v>499000</v>
       </c>
       <c r="K52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="L52" s="3">
         <v>472000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>434000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>442000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>410000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>402000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>374000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>583000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>555000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>551000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>704000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>507000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>475000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>462000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>466000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>12426000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11975000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11583000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11220000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10756000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10909000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9769000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9506000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9545000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9476000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9414000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9506000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9574000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9313000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9824000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9789000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9780000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9538000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9062000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8883000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8288000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8357000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3765,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3792,49 +3925,50 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1160000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1042000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>998000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>906000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>797000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>699000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>599000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>724000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>780000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>764000</v>
       </c>
       <c r="N57" s="3">
         <v>764000</v>
       </c>
       <c r="O57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="P57" s="3">
         <v>699000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>819000</v>
       </c>
       <c r="Q57" s="3">
         <v>819000</v>
@@ -3843,383 +3977,401 @@
         <v>819000</v>
       </c>
       <c r="S57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="T57" s="3">
         <v>797000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>807000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>695000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>666000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>615000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>625000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>860000</v>
+      </c>
+      <c r="E58" s="3">
         <v>791000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>103000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>497000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>496000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>958000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1045000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>749000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>496000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>368000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>319000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>743000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>561000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>229000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>366000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>425000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>326000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>435000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>384000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>107000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>118000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E59" s="3">
         <v>554000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>667000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>631000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>532000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>680000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>752000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>618000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>455000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>478000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>401000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>325000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>380000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>399000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>484000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>425000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>380000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>426000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>420000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>374000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>293000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>334000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2505000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1812000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2129000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1935000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1973000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2409000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2262000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1928000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1754000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1533000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1408000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1822000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1779000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1532000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1610000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1602000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1559000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1550000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1424000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1015000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1077000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3176000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3724000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3156000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3135000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3227000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3140000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2989000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3356000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3409000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3359000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3444000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2933000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2970000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3196000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3228000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3343000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3315000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2954000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2931000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2851000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2890000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1757000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1776000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1778000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1779000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1814000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1336000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1386000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1425000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1415000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1383000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1380000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1153000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1164000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1170000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1365000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1423000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1406000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1381000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1369000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4289,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7819000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7786000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7664000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7422000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7214000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7383000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7261000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7019000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7097000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6969000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6667000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6642000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6527000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6329000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6283000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6409000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6527000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6651000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6347000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6189000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5677000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5769000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4529,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4600,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4671,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4813,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>10106000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9677000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9227000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8797000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8335000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8091000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6710000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6576000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6543000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6399000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6431000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6245000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6114000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5847000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5819000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5491000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5220000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4920000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4781000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4617000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4451000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4320000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5026,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5097,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4607000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4189000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3919000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3798000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3542000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3526000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2508000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2487000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2448000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2747000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2864000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3047000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2984000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3541000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3380000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3253000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2887000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2715000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2694000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2611000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2588000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5239,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E81" s="3">
         <v>524000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>506000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>538000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>322000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1453000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>218000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>263000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>209000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>337000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>401000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>344000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>363000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>203000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>226000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>231000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>183000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>160000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5413,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E83" s="3">
         <v>100000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>91000</v>
       </c>
       <c r="H83" s="3">
         <v>91000</v>
       </c>
       <c r="I83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="J83" s="3">
         <v>90000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>95000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>91000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>90000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>88000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>79000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>82000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>77000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>72000</v>
       </c>
       <c r="X83" s="3">
         <v>72000</v>
       </c>
       <c r="Y83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5555,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5626,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5697,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5768,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5839,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E89" s="3">
         <v>584000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>630000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>427000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>116000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>274000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>431000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>379000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>259000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>326000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>397000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>424000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>307000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>363000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>467000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>585000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>143000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>58000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>255000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>298000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>192000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5937,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-163000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-92000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-88000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-144000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-79000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-79000</v>
       </c>
       <c r="R91" s="3">
         <v>-79000</v>
       </c>
       <c r="S91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-86000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-64000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-54000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-62000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6150,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>177000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>98000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>979000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-181000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-128000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-168000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-177000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-78000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-96000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-235000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-92000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-325000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6248,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-76000</v>
       </c>
       <c r="F96" s="3">
         <v>-76000</v>
       </c>
       <c r="G96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-78000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-72000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-74000</v>
       </c>
       <c r="K96" s="3">
         <v>-74000</v>
       </c>
       <c r="L96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-75000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-78000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-70000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-73000</v>
       </c>
       <c r="R96" s="3">
         <v>-73000</v>
       </c>
       <c r="S96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="T96" s="3">
         <v>-63000</v>
       </c>
       <c r="U96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-62000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-51000</v>
       </c>
       <c r="X96" s="3">
         <v>-51000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6390,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6461,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6532,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-99000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-228000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-344000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-371000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-933000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-290000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-232000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-199000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-299000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-307000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-130000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-526000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-383000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-254000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>145000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-247000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-270000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-292000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6612,137 +6864,143 @@
         <v>-3000</v>
       </c>
       <c r="E101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-804000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>286000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>263000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-164000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>340000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>76000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>218000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>115000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-50000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-137000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-614000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2486000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2275000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2266000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2198000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1798000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1591000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1411000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1193000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1460000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1432000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1586000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1592000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1687000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1689000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1771000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1844000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1851000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1593000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1566000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1510000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1471000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1311000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1793000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1554000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1551000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1437000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1313000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1215000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1084000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>951000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1112000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1116000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1172000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1169000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1269000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1255000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1323000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1336000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1180000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1183000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1145000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1121000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>989000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E10" s="3">
         <v>745000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>721000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>715000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>761000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>485000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>376000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>242000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>348000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>316000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>414000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>423000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>453000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>420000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>516000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>521000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>515000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>413000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>383000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>365000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>350000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>322000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,37 +1031,38 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>20000</v>
       </c>
       <c r="I12" s="3">
         <v>20000</v>
       </c>
       <c r="J12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>17000</v>
       </c>
       <c r="M12" s="3">
         <v>17000</v>
@@ -1060,10 +1074,10 @@
         <v>17000</v>
       </c>
       <c r="P12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>16000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>18000</v>
       </c>
       <c r="R12" s="3">
         <v>18000</v>
@@ -1075,25 +1089,28 @@
         <v>18000</v>
       </c>
       <c r="U12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V12" s="3">
         <v>20000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>17000</v>
       </c>
       <c r="X12" s="3">
         <v>17000</v>
       </c>
       <c r="Y12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Z12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>102000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>98000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>55000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,31 +1272,31 @@
         <v>11000</v>
       </c>
       <c r="E15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6000</v>
       </c>
       <c r="K15" s="3">
         <v>6000</v>
       </c>
       <c r="L15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M15" s="3">
         <v>5000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
@@ -1288,34 +1311,37 @@
         <v>6000</v>
       </c>
       <c r="R15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S15" s="3">
         <v>5000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>6000</v>
       </c>
       <c r="U15" s="3">
         <v>6000</v>
       </c>
       <c r="V15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="W15" s="3">
         <v>5000</v>
       </c>
       <c r="X15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>4000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2003000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2007000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1758000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1730000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1631000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1472000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-20000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1227000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1110000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1266000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1364000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1326000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1406000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1367000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1430000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1397000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1486000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1508000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1353000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1337000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1292000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1301000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1194000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E18" s="3">
         <v>531000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>517000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>536000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>567000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>326000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1611000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>184000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>83000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>194000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>260000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>186000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>320000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>259000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>374000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>358000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>343000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>240000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>229000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>218000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>170000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>117000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,304 +1548,317 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>120000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>61000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>116000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>117000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>108000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>85000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>91000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>96000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>118000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>116000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>122000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>56000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>92000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>93000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>99000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>68000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E21" s="3">
         <v>757000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>678000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>746000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>777000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>525000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1688000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>359000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>263000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>406000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>445000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>358000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>296000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>582000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>562000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>545000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>375000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>403000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>388000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>341000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>257000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>35000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>30000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>28000</v>
       </c>
       <c r="M22" s="3">
         <v>28000</v>
       </c>
       <c r="N22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="O22" s="3">
         <v>27000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>31000</v>
       </c>
       <c r="Q22" s="3">
         <v>31000</v>
       </c>
       <c r="R22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="S22" s="3">
         <v>30000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>31000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>32000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>30000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>29000</v>
       </c>
       <c r="Y22" s="3">
         <v>29000</v>
       </c>
       <c r="Z22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E23" s="3">
         <v>616000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>557000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>622000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>660000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>409000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1571000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>241000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>292000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>323000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>239000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>385000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>462000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>442000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>432000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>265000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>289000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>281000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>240000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>156000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1820,73 +1866,76 @@
         <v>112000</v>
       </c>
       <c r="E24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>116000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>117000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>56000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E26" s="3">
         <v>504000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>530000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>520000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>544000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>324000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1454000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>211000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>227000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>270000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>211000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>339000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>102000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>397000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>345000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>367000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>295000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>232000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>241000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>184000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>161000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E27" s="3">
         <v>502000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>528000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>519000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>542000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>323000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1453000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>209000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>225000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>268000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>210000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>338000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>396000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>344000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>365000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>294000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>230000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>239000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>183000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>160000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,46 +2239,49 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-13000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1000</v>
       </c>
       <c r="P29" s="3">
         <v>-1000</v>
@@ -2229,34 +2290,37 @@
         <v>-1000</v>
       </c>
       <c r="R29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S29" s="3">
         <v>5000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-91000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-8000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-120000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-61000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-116000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-117000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-108000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-85000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-91000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-118000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-116000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-122000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-56000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-92000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-93000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-99000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E33" s="3">
         <v>502000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>524000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>506000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>538000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>322000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1453000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>207000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>218000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>263000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>209000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>337000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>99000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>401000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>344000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>363000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>203000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>226000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>231000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>183000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>160000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E35" s="3">
         <v>502000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>524000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>506000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>538000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>322000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1453000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>207000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>218000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>263000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>209000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>337000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>99000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>401000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>344000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>363000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>203000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>226000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>231000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>183000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>160000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,132 +2920,136 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E41" s="3">
         <v>605000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>536000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1340000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1054000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>791000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>955000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>615000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>539000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>570000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>463000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>497000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>491000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>441000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>439000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>703000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>708000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>490000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>576000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>461000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>511000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>501000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>638000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>9000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>331000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>533000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>35000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>31000</v>
       </c>
       <c r="R42" s="3">
         <v>31000</v>
       </c>
       <c r="S42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="T42" s="3">
         <v>32000</v>
@@ -2968,540 +3058,564 @@
         <v>32000</v>
       </c>
       <c r="V42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W42" s="3">
         <v>31000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>30000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>31000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>30000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1913000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1667000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1738000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1788000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1510000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1242000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1063000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1041000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1160000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1181000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1282000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1303000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1358000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1318000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1365000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1445000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1476000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1230000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1249000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1212000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1102000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1024000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1549000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1524000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1159000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1118000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1025000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>978000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1001000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1031000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1036000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1038000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>994000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1011000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1009000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1046000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1033000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>917000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>955000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>809000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>771000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>717000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>720000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E45" s="3">
         <v>124000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>53000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>57000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>44000</v>
       </c>
       <c r="O45" s="3">
         <v>44000</v>
       </c>
       <c r="P45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>47000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>54000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>38000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3807000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4355000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4061000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3710000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3763000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2771000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2709000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2855000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2765000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2843000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2876000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2884000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2874000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3180000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3153000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3006000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2792000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2613000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2583000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2389000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2472000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E47" s="3">
         <v>847000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>823000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>842000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>818000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>796000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>820000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>993000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>957000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>981000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>975000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>970000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>959000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>950000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>979000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>981000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>963000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>979000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>976000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>938000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>885000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>874000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>852000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4422000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4455000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4429000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4155000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4137000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4097000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4171000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4061000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3926000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3879000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3916000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3791000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3851000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3931000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3719000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3699000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3724000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3801000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3762000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3706000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3663000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3571000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3577000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2023000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2111000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2147000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1434000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1447000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1442000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1485000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1445000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1415000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1358000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1386000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1368000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1410000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1407000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1367000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1381000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1394000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1443000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1304000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1298000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1277000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>992000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>990000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E52" s="3">
         <v>813000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>769000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>797000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>757000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>711000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>670000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>499000</v>
       </c>
       <c r="K52" s="3">
         <v>499000</v>
       </c>
       <c r="L52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="M52" s="3">
         <v>472000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>434000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>442000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>410000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>402000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>374000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>583000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>555000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>551000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>704000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>507000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>475000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>462000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>466000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>12713000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12426000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11975000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11583000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11220000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10756000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10909000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9769000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9506000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9545000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9476000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9414000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9506000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9574000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9313000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9824000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9789000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9780000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9538000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9062000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8883000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8288000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8357000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,52 +4056,53 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1169000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1160000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1042000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>998000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>906000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>797000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>699000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>599000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>724000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>780000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>764000</v>
       </c>
       <c r="O57" s="3">
         <v>764000</v>
       </c>
       <c r="P57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>699000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>819000</v>
       </c>
       <c r="R57" s="3">
         <v>819000</v>
@@ -3980,398 +4111,416 @@
         <v>819000</v>
       </c>
       <c r="T57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="U57" s="3">
         <v>797000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>807000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>695000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>666000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>615000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>625000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>809000</v>
+      </c>
+      <c r="E58" s="3">
         <v>860000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>791000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>103000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>497000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>496000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>958000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1045000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>749000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>496000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>368000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>319000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>743000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>561000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>229000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>366000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>425000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>326000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>435000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>384000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>107000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>118000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E59" s="3">
         <v>525000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>554000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>667000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>631000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>532000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>680000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>752000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>618000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>455000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>478000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>401000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>325000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>380000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>399000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>484000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>425000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>380000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>426000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>420000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>374000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>293000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>334000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2554000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2505000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1812000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2129000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1935000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1973000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2409000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2262000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1928000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1754000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1533000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1408000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1822000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1779000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1532000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1610000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1602000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1559000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1550000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1424000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1015000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1077000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3022000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3132000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3176000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3724000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3156000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3135000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3227000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3140000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2989000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3356000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3409000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3359000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3444000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2933000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2970000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3196000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3228000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3343000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3315000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2954000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2931000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2851000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2890000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1787000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1757000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1776000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1778000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1779000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1814000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1336000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1386000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1425000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1415000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1383000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1380000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1185000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1153000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1164000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1170000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1365000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1423000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1406000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1381000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1369000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7833000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7819000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7786000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7664000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7422000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7214000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7383000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7019000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7097000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6969000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6667000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6642000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6527000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6329000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6283000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6409000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6527000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6651000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6347000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6189000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5677000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5769000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>10466000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10106000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9677000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9227000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8797000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8335000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8091000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6710000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6576000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6543000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6399000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6431000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6245000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6114000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5847000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5819000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5491000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5220000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4920000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4781000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4617000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4451000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4320000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4880000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4607000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4189000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3919000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3798000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3542000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3526000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2508000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2487000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2448000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2747000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2864000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3047000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2984000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3541000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3380000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3253000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2887000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2715000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2694000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2611000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2588000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E81" s="3">
         <v>502000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>524000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>506000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>538000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>322000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1453000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>207000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>218000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>263000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>209000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>337000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>99000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>401000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>344000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>363000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>203000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>226000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>231000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>183000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>160000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E83" s="3">
         <v>106000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>91000</v>
       </c>
       <c r="I83" s="3">
         <v>91000</v>
       </c>
       <c r="J83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K83" s="3">
         <v>90000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>91000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>95000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>91000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>90000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>88000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>79000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>82000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>77000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>72000</v>
       </c>
       <c r="Y83" s="3">
         <v>72000</v>
       </c>
       <c r="Z83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E89" s="3">
         <v>316000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>584000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>630000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>427000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>116000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>274000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>431000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>379000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>259000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>326000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>397000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>424000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>307000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>363000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>467000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>585000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>143000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>58000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>255000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>298000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>192000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-47000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-137000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-163000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-110000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-92000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-144000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-82000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-79000</v>
       </c>
       <c r="S91" s="3">
         <v>-79000</v>
       </c>
       <c r="T91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-86000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-87000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-64000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-54000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-149000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>177000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>98000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>979000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-181000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-128000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-168000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-177000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-78000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-96000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-235000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-92000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-68000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-325000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-73000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-76000</v>
       </c>
       <c r="G96" s="3">
         <v>-76000</v>
       </c>
       <c r="H96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-78000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-72000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-74000</v>
       </c>
       <c r="L96" s="3">
         <v>-74000</v>
       </c>
       <c r="M96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-75000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-78000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-73000</v>
       </c>
       <c r="S96" s="3">
         <v>-73000</v>
       </c>
       <c r="T96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="U96" s="3">
         <v>-63000</v>
       </c>
       <c r="V96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-62000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-51000</v>
       </c>
       <c r="Y96" s="3">
         <v>-51000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-99000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-228000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-344000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-371000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-933000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-290000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-232000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-199000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-299000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-307000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-526000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-383000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-254000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>145000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-247000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>21000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-270000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-292000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-22000</v>
       </c>
       <c r="E101" s="3">
         <v>-3000</v>
       </c>
       <c r="F101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>16000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E102" s="3">
         <v>69000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-804000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>286000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>263000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-164000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>340000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>76000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-264000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>218000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>115000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-50000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-137000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-614000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2301000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2486000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2538000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2275000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2266000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2198000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1798000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1591000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1411000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1193000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1460000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1432000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1586000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1592000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1687000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1689000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1771000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1844000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1851000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1593000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1566000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1510000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1471000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1311000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1781000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1793000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1554000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1551000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1437000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1313000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1215000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1084000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>951000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1112000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1116000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1172000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1234000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1269000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1255000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1323000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1336000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1180000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1183000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1145000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1121000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>989000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E10" s="3">
         <v>705000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>745000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>721000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>715000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>761000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>485000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>376000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>242000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>348000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>316000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>414000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>423000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>453000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>420000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>516000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>521000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>515000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>413000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>383000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>365000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>350000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>322000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,40 +1045,41 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>20000</v>
       </c>
       <c r="J12" s="3">
         <v>20000</v>
       </c>
       <c r="K12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L12" s="3">
         <v>19000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>17000</v>
       </c>
       <c r="N12" s="3">
         <v>17000</v>
@@ -1077,10 +1091,10 @@
         <v>17000</v>
       </c>
       <c r="Q12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R12" s="3">
         <v>16000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>18000</v>
       </c>
       <c r="S12" s="3">
         <v>18000</v>
@@ -1092,25 +1106,28 @@
         <v>18000</v>
       </c>
       <c r="V12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="W12" s="3">
         <v>20000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19000</v>
-      </c>
-      <c r="X12" s="3">
-        <v>17000</v>
       </c>
       <c r="Y12" s="3">
         <v>17000</v>
       </c>
       <c r="Z12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="AA12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,120 +1203,126 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>15000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>102000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>98000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-12000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>55000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="3">
         <v>11000</v>
       </c>
       <c r="F15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6000</v>
       </c>
       <c r="L15" s="3">
         <v>6000</v>
       </c>
       <c r="M15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N15" s="3">
         <v>5000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>6000</v>
       </c>
       <c r="O15" s="3">
         <v>6000</v>
@@ -1314,34 +1337,37 @@
         <v>6000</v>
       </c>
       <c r="S15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T15" s="3">
         <v>5000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>6000</v>
       </c>
       <c r="V15" s="3">
         <v>6000</v>
       </c>
       <c r="W15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="X15" s="3">
         <v>5000</v>
       </c>
       <c r="Y15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>4000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2003000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2007000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1758000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1730000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1631000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1472000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1227000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1110000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1266000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1364000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1326000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1367000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1430000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1397000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1486000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1508000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1353000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1337000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1292000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1301000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1194000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E18" s="3">
         <v>483000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>531000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>517000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>536000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>567000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>326000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1611000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>184000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>83000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>194000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>260000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>186000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>320000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>259000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>374000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>358000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>343000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>240000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>229000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>218000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>170000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>117000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E20" s="3">
         <v>119000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>120000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>61000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>116000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>117000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>108000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>85000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>91000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>90000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>96000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>118000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>116000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>122000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>56000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>92000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>93000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>99000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>68000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E21" s="3">
         <v>709000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>757000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>678000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>746000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>777000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>525000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>359000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>263000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>406000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>445000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>358000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>296000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>582000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>562000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>545000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>375000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>403000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>388000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>341000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>257000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>28000</v>
       </c>
       <c r="N22" s="3">
         <v>28000</v>
       </c>
       <c r="O22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P22" s="3">
         <v>27000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>31000</v>
       </c>
       <c r="R22" s="3">
         <v>31000</v>
       </c>
       <c r="S22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="T22" s="3">
         <v>30000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>31000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>32000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>30000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>29000</v>
       </c>
       <c r="Z22" s="3">
         <v>29000</v>
       </c>
       <c r="AA22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E23" s="3">
         <v>554000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>616000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>557000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>622000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>660000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>409000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1571000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>292000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>323000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>239000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>385000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>174000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>462000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>442000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>432000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>265000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>289000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>281000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>240000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>156000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>112000</v>
+        <v>127000</v>
       </c>
       <c r="E24" s="3">
         <v>112000</v>
       </c>
       <c r="F24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>116000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>117000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>65000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-30000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>56000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E26" s="3">
         <v>442000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>504000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>530000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>520000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>544000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>324000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1454000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>211000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>227000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>211000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>339000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>102000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>397000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>345000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>367000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>295000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>232000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>241000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>184000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>161000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E27" s="3">
         <v>440000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>502000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>528000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>519000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>542000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>323000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1453000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>209000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>225000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>268000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>210000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>338000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>396000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>344000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>365000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>294000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>230000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>239000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>183000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>160000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,49 +2300,52 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-4000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-13000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q29" s="3">
         <v>-1000</v>
@@ -2293,34 +2354,37 @@
         <v>-1000</v>
       </c>
       <c r="S29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T29" s="3">
         <v>5000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-91000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-119000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-120000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-61000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-116000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-117000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-108000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-85000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-91000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-90000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-96000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-118000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-116000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-122000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-56000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-92000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-99000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E33" s="3">
         <v>434000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>502000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>524000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>506000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>538000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>322000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1453000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>218000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>263000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>209000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>337000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>401000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>344000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>363000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>203000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>226000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>231000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>183000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>160000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E35" s="3">
         <v>434000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>502000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>524000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>506000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>538000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>322000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1453000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>218000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>263000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>209000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>337000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>401000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>344000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>363000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>203000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>226000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>231000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>183000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>160000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,138 +3007,142 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>9671000</v>
+      </c>
+      <c r="E41" s="3">
         <v>783000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>605000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>536000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1340000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1054000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>791000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>955000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>615000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>539000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>570000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>463000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>497000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>491000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>441000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>439000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>703000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>708000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>490000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>576000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>461000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>511000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>501000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>638000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>331000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>533000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>36000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29000</v>
-      </c>
-      <c r="R42" s="3">
-        <v>31000</v>
       </c>
       <c r="S42" s="3">
         <v>31000</v>
       </c>
       <c r="T42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="U42" s="3">
         <v>32000</v>
@@ -3061,561 +3151,585 @@
         <v>32000</v>
       </c>
       <c r="W42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="X42" s="3">
         <v>31000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>30000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>31000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>30000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1827000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1913000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1667000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1738000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1788000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1510000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1242000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1063000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1041000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1160000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1181000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1282000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1303000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1358000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1318000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1365000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1445000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1476000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1230000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1249000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1212000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1102000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1024000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1713000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1549000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1524000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1159000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1118000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1025000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>978000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1001000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1031000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1036000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1038000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>994000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1009000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1046000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1033000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>917000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>955000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>900000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>809000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>771000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>717000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>720000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E45" s="3">
         <v>129000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>124000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>43000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>44000</v>
       </c>
       <c r="P45" s="3">
         <v>44000</v>
       </c>
       <c r="Q45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="R45" s="3">
         <v>47000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>54000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>38000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>60000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>13192000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4459000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3807000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4355000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4061000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3710000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3763000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2771000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2709000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2855000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2765000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2843000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2876000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2884000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2874000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3180000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3153000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3006000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2792000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2613000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2583000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2389000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2472000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E47" s="3">
         <v>935000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>847000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>823000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>842000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>818000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>796000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>820000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>993000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>957000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>981000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>975000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>970000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>959000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>950000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>979000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>981000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>963000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>979000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>976000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>938000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>885000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>874000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>852000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4335000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4422000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4455000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4429000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4155000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4137000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4097000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4171000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4061000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3926000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3879000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3916000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3791000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3851000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3931000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3719000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3699000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3724000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3801000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3762000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3706000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3663000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3571000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3577000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2023000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2111000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2147000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1434000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1447000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1442000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1485000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1445000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1415000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1358000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1386000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1368000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1410000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1407000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1367000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1381000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1394000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1443000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1304000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1298000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1277000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>992000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>990000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E52" s="3">
         <v>874000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>813000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>769000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>797000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>757000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>711000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>670000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>499000</v>
       </c>
       <c r="L52" s="3">
         <v>499000</v>
       </c>
       <c r="M52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="N52" s="3">
         <v>472000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>434000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>442000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>410000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>402000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>374000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>583000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>555000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>551000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>704000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>507000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>475000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>462000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>466000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>21337000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12713000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11975000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11583000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11220000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10756000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10909000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9769000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9506000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9545000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9476000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9414000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9506000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9574000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9313000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9824000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9789000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9780000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9538000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9062000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8883000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8288000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8357000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,55 +4187,56 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1250000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1169000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1160000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1042000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>998000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>906000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>797000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>699000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>599000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>724000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>780000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>764000</v>
       </c>
       <c r="P57" s="3">
         <v>764000</v>
       </c>
       <c r="Q57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="R57" s="3">
         <v>699000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>819000</v>
       </c>
       <c r="S57" s="3">
         <v>819000</v>
@@ -4114,413 +4245,431 @@
         <v>819000</v>
       </c>
       <c r="U57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="V57" s="3">
         <v>797000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>807000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>695000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>666000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>615000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>625000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E58" s="3">
         <v>809000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>860000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>791000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>103000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>497000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>496000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>958000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1045000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>749000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>496000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>368000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>319000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>743000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>561000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>229000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>366000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>425000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>326000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>435000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>384000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>107000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>118000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E59" s="3">
         <v>536000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>525000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>554000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>667000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>631000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>532000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>680000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>752000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>618000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>455000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>478000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>401000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>325000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>380000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>399000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>484000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>425000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>380000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>426000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>420000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>374000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>293000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>334000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2788000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2595000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2554000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2505000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1812000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2129000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1935000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1973000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2409000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2262000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1928000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1754000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1533000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1822000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1779000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1532000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1610000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1602000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1559000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1550000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1424000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1015000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1077000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>11360000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3022000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3132000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3176000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3724000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3156000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3135000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3227000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3140000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2989000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3356000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3409000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3359000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3444000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2933000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2970000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3196000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3228000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3343000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3315000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2954000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2931000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2851000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2890000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1895000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1871000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1787000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1757000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1776000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1778000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1779000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1814000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1336000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1386000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1425000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1415000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1383000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1380000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1185000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1153000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1164000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1170000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1365000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1423000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1406000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1381000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1369000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>16387000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7833000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7819000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7786000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7664000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7422000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7214000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7383000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7261000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7019000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7097000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6969000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6667000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6642000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6527000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6329000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6283000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6409000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6527000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6651000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6347000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6189000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5677000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5769000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>10584000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10466000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10106000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9677000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9227000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8797000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8335000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8091000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6710000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6576000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6543000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6399000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6431000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6245000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6114000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5847000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5819000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5491000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5220000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4920000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4781000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4617000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4451000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4320000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4950000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4880000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4607000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4189000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3919000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3798000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3542000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3526000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2508000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2487000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2448000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2747000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2864000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3047000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2984000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3541000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3380000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3253000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2887000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2715000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2611000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2588000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E81" s="3">
         <v>434000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>502000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>524000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>506000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>538000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>322000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1453000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>218000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>263000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>209000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>337000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>401000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>344000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>363000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>203000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>226000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>231000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>183000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>160000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E83" s="3">
         <v>107000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>106000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>91000</v>
       </c>
       <c r="J83" s="3">
         <v>91000</v>
       </c>
       <c r="K83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="L83" s="3">
         <v>90000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>91000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>95000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>91000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>90000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>88000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>80000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>79000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>82000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>77000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>72000</v>
       </c>
       <c r="Z83" s="3">
         <v>72000</v>
       </c>
       <c r="AA83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E89" s="3">
         <v>495000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>316000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>584000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>630000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>427000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>116000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>274000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>431000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>379000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>259000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>326000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>424000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>307000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>363000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>467000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>585000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>143000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>255000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>298000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>192000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-47000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-124000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-137000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-163000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-85000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-119000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-144000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-79000</v>
       </c>
       <c r="T91" s="3">
         <v>-79000</v>
       </c>
       <c r="U91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-86000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-87000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-64000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-54000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-62000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-136000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-149000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>177000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>98000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>979000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-181000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-128000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-168000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-82000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-177000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-96000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-235000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-92000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-68000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-325000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-247000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-73000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-76000</v>
       </c>
       <c r="H96" s="3">
         <v>-76000</v>
       </c>
       <c r="I96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-78000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-72000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-74000</v>
       </c>
       <c r="M96" s="3">
         <v>-74000</v>
       </c>
       <c r="N96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-75000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-77000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-70000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-73000</v>
       </c>
       <c r="T96" s="3">
         <v>-73000</v>
       </c>
       <c r="U96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="V96" s="3">
         <v>-63000</v>
       </c>
       <c r="W96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-62000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-51000</v>
       </c>
       <c r="Z96" s="3">
         <v>-51000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>8600000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-159000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-95000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-99000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-228000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-344000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-371000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-933000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-290000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-232000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-199000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-299000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-307000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-130000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-526000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-383000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-254000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>145000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-247000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>21000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-270000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-292000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-3000</v>
       </c>
       <c r="F101" s="3">
         <v>-3000</v>
       </c>
       <c r="G101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-17000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>16000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>8888000</v>
+      </c>
+      <c r="E102" s="3">
         <v>178000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-804000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>286000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>263000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-164000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>340000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>76000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-264000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>218000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-86000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>115000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-50000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-137000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-614000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2348000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2301000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2486000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2538000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2275000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2266000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2198000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1798000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1591000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1411000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1193000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1460000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1432000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1586000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1592000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1687000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1689000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1771000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1844000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1851000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1593000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1566000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1510000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1471000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1311000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1964000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1755000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1781000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1793000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1554000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1551000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1437000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1313000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1215000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1084000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>951000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1112000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1116000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1172000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1169000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1234000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1269000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1255000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1323000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1336000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1180000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1183000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1145000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1121000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>989000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E10" s="3">
         <v>546000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>705000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>745000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>721000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>715000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>761000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>485000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>376000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>327000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>242000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>348000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>316000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>414000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>423000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>453000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>420000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>516000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>521000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>515000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>413000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>383000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>365000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>350000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>322000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,43 +1059,44 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>20000</v>
       </c>
       <c r="K12" s="3">
         <v>20000</v>
       </c>
       <c r="L12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M12" s="3">
         <v>19000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>17000</v>
       </c>
       <c r="O12" s="3">
         <v>17000</v>
@@ -1094,10 +1108,10 @@
         <v>17000</v>
       </c>
       <c r="R12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S12" s="3">
         <v>16000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>18000</v>
       </c>
       <c r="T12" s="3">
         <v>18000</v>
@@ -1109,25 +1123,28 @@
         <v>18000</v>
       </c>
       <c r="W12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="X12" s="3">
         <v>20000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>19000</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>17000</v>
       </c>
       <c r="Z12" s="3">
         <v>17000</v>
       </c>
       <c r="AA12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="AB12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,126 +1223,132 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>102000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>98000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-12000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>55000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11000</v>
       </c>
       <c r="F15" s="3">
         <v>11000</v>
       </c>
       <c r="G15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6000</v>
       </c>
       <c r="M15" s="3">
         <v>6000</v>
       </c>
       <c r="N15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O15" s="3">
         <v>5000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6000</v>
       </c>
       <c r="P15" s="3">
         <v>6000</v>
@@ -1340,34 +1363,37 @@
         <v>6000</v>
       </c>
       <c r="T15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U15" s="3">
         <v>5000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>6000</v>
       </c>
       <c r="W15" s="3">
         <v>6000</v>
       </c>
       <c r="X15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Y15" s="3">
         <v>5000</v>
       </c>
       <c r="Z15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>4000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>2000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2292000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1993000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2003000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2007000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1758000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1730000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1631000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1472000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-20000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1227000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1110000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1266000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1364000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1406000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1367000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1430000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1397000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1486000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1508000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1353000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1337000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1292000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1301000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1194000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E18" s="3">
         <v>308000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>483000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>531000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>517000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>536000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>567000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>326000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1611000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>184000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>194000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>260000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>186000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>320000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>259000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>374000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>358000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>343000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>240000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>229000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>218000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>170000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>117000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="3">
         <v>167000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>119000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>120000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>61000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>116000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>117000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>108000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>85000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>91000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>126000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>90000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>86000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>96000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-54000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>118000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>116000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>122000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>56000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>92000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>93000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>99000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>68000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E21" s="3">
         <v>580000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>709000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>757000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>678000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>746000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>777000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>525000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>359000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>263000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>406000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>445000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>358000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>296000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>582000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>562000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>545000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>375000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>403000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>388000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>341000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>257000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E22" s="3">
         <v>154000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>28000</v>
       </c>
       <c r="O22" s="3">
         <v>28000</v>
       </c>
       <c r="P22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>27000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>31000</v>
       </c>
       <c r="S22" s="3">
         <v>31000</v>
       </c>
       <c r="T22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="U22" s="3">
         <v>30000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>33000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>31000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>32000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>30000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>29000</v>
       </c>
       <c r="AA22" s="3">
         <v>29000</v>
       </c>
       <c r="AB22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E23" s="3">
         <v>321000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>554000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>616000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>557000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>622000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>660000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>409000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1571000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>147000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>292000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>323000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>239000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>385000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>174000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>462000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>442000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>432000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>265000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>289000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>281000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>240000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>156000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-840000</v>
+      </c>
+      <c r="E24" s="3">
         <v>127000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>112000</v>
       </c>
       <c r="F24" s="3">
         <v>112000</v>
       </c>
       <c r="G24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="H24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>117000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>97000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>65000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-30000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>56000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E26" s="3">
         <v>194000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>442000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>504000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>530000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>520000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>544000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>324000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1454000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>211000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>227000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>211000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>339000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>102000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>397000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>345000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>367000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>295000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>232000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>241000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>184000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>161000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>768000</v>
+      </c>
+      <c r="E27" s="3">
         <v>192000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>440000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>502000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>528000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>519000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>542000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>323000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1453000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>209000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>225000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>268000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>210000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>338000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>396000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>344000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>365000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>294000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>230000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>239000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>183000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>160000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2312,43 +2373,43 @@
         <v>-1000</v>
       </c>
       <c r="E29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F29" s="3">
         <v>-6000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-4000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-13000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-7000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1000</v>
       </c>
       <c r="R29" s="3">
         <v>-1000</v>
@@ -2357,34 +2418,37 @@
         <v>-1000</v>
       </c>
       <c r="T29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U29" s="3">
         <v>5000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-91000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-167000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-119000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-120000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-61000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-116000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-117000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-108000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-85000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-91000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-126000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-86000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-96000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>54000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-118000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-116000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-122000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-56000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-99000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E33" s="3">
         <v>191000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>434000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>502000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>524000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>506000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>538000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1453000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>218000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>263000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>209000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>337000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>401000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>344000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>363000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>203000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>226000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>231000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>183000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>160000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E35" s="3">
         <v>191000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>434000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>502000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>524000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>506000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>538000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1453000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>218000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>263000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>209000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>337000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>401000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>344000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>363000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>203000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>226000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>231000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>183000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>160000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,144 +3094,148 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1508000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9671000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>783000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>605000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>536000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1340000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1054000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>791000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>955000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>615000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>539000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>570000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>463000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>497000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>491000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>441000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>439000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>703000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>708000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>490000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>576000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>461000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>511000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>501000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>638000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>331000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>533000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>40000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29000</v>
-      </c>
-      <c r="S42" s="3">
-        <v>31000</v>
       </c>
       <c r="T42" s="3">
         <v>31000</v>
       </c>
       <c r="U42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="V42" s="3">
         <v>32000</v>
@@ -3154,582 +3244,606 @@
         <v>32000</v>
       </c>
       <c r="X42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Y42" s="3">
         <v>31000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>30000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>31000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>30000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1612000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1827000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1913000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1667000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1738000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1788000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1510000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1242000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1063000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1041000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1160000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1181000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1282000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1303000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1358000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1318000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1365000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1445000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1476000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1230000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1249000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1212000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1102000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1024000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2808000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1723000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1713000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1549000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1524000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1159000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1118000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1025000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>978000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1001000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1031000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1036000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1038000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>994000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1011000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1009000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1046000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1033000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>917000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>955000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>900000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>809000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>771000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>717000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>720000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E45" s="3">
         <v>186000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>129000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>124000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>53000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>43000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>44000</v>
       </c>
       <c r="Q45" s="3">
         <v>44000</v>
       </c>
       <c r="R45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="S45" s="3">
         <v>47000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>54000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>38000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>60000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6611000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13192000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4459000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4200000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3807000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4355000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4061000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3710000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3763000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2771000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2709000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2855000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2765000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2843000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2876000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2884000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2874000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3180000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3153000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3006000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2792000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2613000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2583000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2389000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2472000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E47" s="3">
         <v>954000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>935000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>847000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>823000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>842000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>818000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>796000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>820000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>993000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>957000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>981000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>975000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>970000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>959000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>950000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>979000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>981000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>963000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>979000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>976000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>938000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>885000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>874000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>852000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5997000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4335000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4422000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4455000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4429000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4155000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4137000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4097000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4171000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4061000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3926000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3879000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3916000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3791000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3851000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3931000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3719000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3699000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3724000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3801000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3762000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3706000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3663000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3571000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3577000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>11247000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1939000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2023000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2111000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2147000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1434000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1447000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1442000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1485000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1445000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1415000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1358000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1386000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1410000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1407000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1367000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1381000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1394000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1443000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1304000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1298000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1277000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>992000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>990000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E52" s="3">
         <v>917000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>874000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>813000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>769000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>797000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>757000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>711000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>670000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>499000</v>
       </c>
       <c r="M52" s="3">
         <v>499000</v>
       </c>
       <c r="N52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="O52" s="3">
         <v>472000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>434000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>442000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>410000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>402000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>374000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>583000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>555000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>551000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>704000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>507000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>475000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>462000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>466000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>26272000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21337000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12713000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12426000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11975000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11583000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11220000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10756000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10909000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9769000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9506000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9545000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9476000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9414000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9506000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9574000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9313000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9824000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9789000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9780000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9538000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9062000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8883000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8288000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8357000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,58 +4318,59 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1518000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1128000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1250000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1169000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1160000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1042000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>998000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>906000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>797000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>699000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>599000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>724000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>780000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>764000</v>
       </c>
       <c r="Q57" s="3">
         <v>764000</v>
       </c>
       <c r="R57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="S57" s="3">
         <v>699000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>819000</v>
       </c>
       <c r="T57" s="3">
         <v>819000</v>
@@ -4248,428 +4379,446 @@
         <v>819000</v>
       </c>
       <c r="V57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="W57" s="3">
         <v>797000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>807000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>695000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>666000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>615000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>625000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E58" s="3">
         <v>977000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>809000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>860000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>791000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>103000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>497000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>496000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>958000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1045000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>749000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>496000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>368000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>319000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>743000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>561000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>229000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>366000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>425000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>326000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>435000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>384000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>107000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>118000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E59" s="3">
         <v>683000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>536000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>525000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>554000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>667000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>631000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>532000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>680000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>752000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>618000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>455000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>478000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>401000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>325000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>380000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>399000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>484000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>425000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>380000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>426000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>420000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>374000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>293000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>334000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4068000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2788000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2595000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2554000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2505000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1812000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2129000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1935000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1973000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2409000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2262000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1928000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1754000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1533000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1408000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1822000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1779000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1532000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1610000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1602000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1559000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1550000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1424000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1015000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1077000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>13373000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11360000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3022000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3132000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3176000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3724000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3135000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3227000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3140000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2989000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3356000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3409000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3359000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3444000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2933000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2970000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3196000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3228000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3343000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3315000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2954000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2931000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2851000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2890000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2726000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1895000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1871000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1787000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1757000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1776000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1778000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1779000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1814000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1336000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1386000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1425000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1415000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1383000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1380000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1185000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1153000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1164000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1170000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1365000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1423000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1406000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1381000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1369000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>20635000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16387000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7833000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7819000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7786000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7664000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7422000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7214000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7383000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7261000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7019000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7097000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6969000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6667000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6642000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6527000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6329000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6283000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6409000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6527000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6651000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6347000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6189000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5677000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5769000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>11274000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10584000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10466000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10106000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9677000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9227000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8797000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8335000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8091000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6710000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6576000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6543000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6399000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6431000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6245000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6114000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5847000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5819000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5491000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5220000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4920000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4781000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4617000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4451000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4320000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5637000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4950000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4880000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4607000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4189000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3919000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3798000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3542000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3526000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2508000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2487000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2448000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2747000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2864000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3047000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2984000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3541000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3380000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3253000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2887000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2611000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2588000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E81" s="3">
         <v>191000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>434000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>502000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>524000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>506000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>538000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1453000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>218000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>263000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>209000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>337000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>401000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>344000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>363000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>203000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>226000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>231000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>183000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>160000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>107000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>91000</v>
       </c>
       <c r="K83" s="3">
         <v>91000</v>
       </c>
       <c r="L83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="M83" s="3">
         <v>90000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>91000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>95000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>91000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>90000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>88000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>80000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>79000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>82000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>77000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>72000</v>
       </c>
       <c r="AA83" s="3">
         <v>72000</v>
       </c>
       <c r="AB83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E89" s="3">
         <v>467000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>495000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>316000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>584000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>630000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>427000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>116000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>274000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>431000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>379000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>259000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>326000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>424000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>307000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>363000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>467000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>585000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>143000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>255000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>298000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>192000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-47000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-137000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-163000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-102000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-92000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-88000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-119000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-144000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-79000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-79000</v>
       </c>
       <c r="U91" s="3">
         <v>-79000</v>
       </c>
       <c r="V91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-86000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-87000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-54000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-10713000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-143000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-136000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>177000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>98000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>979000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-181000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-128000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-168000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-177000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-98000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-78000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-96000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-235000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-92000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-325000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-64000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-247000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-73000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-73000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-76000</v>
       </c>
       <c r="I96" s="3">
         <v>-76000</v>
       </c>
       <c r="J96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-78000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-72000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-74000</v>
       </c>
       <c r="N96" s="3">
         <v>-74000</v>
       </c>
       <c r="O96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-75000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-78000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-73000</v>
       </c>
       <c r="U96" s="3">
         <v>-73000</v>
       </c>
       <c r="V96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="W96" s="3">
         <v>-63000</v>
       </c>
       <c r="X96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-51000</v>
       </c>
       <c r="AA96" s="3">
         <v>-51000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1944000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8600000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-159000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-95000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-99000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-228000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-344000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-371000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-933000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-290000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-232000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-199000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-307000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-130000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-526000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-383000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-254000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>145000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>21000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-270000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-292000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-36000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3000</v>
       </c>
       <c r="G101" s="3">
         <v>-3000</v>
       </c>
       <c r="H101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-17000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>16000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-8163000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8888000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>178000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>69000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-804000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>286000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>263000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-164000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>340000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-264000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>218000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-86000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>115000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>10000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-137000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-614000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2853000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2348000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2301000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2486000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2538000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2275000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2266000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2198000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1798000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1591000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1411000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1193000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1460000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1586000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1592000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1687000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1689000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1771000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1844000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1851000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1593000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1566000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1510000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1471000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1311000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1964000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1755000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1781000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1793000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1554000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1551000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1437000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1313000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1215000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1084000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>951000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1112000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1172000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1169000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1234000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1269000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1255000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1323000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1336000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1180000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1183000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1145000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1121000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>989000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E10" s="3">
         <v>384000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>546000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>705000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>745000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>721000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>715000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>761000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>485000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>376000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>242000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>348000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>316000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>414000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>423000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>453000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>420000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>516000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>521000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>515000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>413000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>383000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>365000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>350000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>322000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,46 +1073,47 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>20000</v>
       </c>
       <c r="L12" s="3">
         <v>20000</v>
       </c>
       <c r="M12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N12" s="3">
         <v>19000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>17000</v>
       </c>
       <c r="P12" s="3">
         <v>17000</v>
@@ -1111,10 +1125,10 @@
         <v>17000</v>
       </c>
       <c r="S12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="T12" s="3">
         <v>16000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>18000</v>
       </c>
       <c r="U12" s="3">
         <v>18000</v>
@@ -1126,25 +1140,28 @@
         <v>18000</v>
       </c>
       <c r="X12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>20000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>19000</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>17000</v>
       </c>
       <c r="AA12" s="3">
         <v>17000</v>
       </c>
       <c r="AB12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="AC12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,132 +1243,138 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>102000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>98000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-12000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>55000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E15" s="3">
         <v>30000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>11000</v>
       </c>
       <c r="G15" s="3">
         <v>11000</v>
       </c>
       <c r="H15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
       </c>
       <c r="O15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P15" s="3">
         <v>5000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>6000</v>
       </c>
       <c r="Q15" s="3">
         <v>6000</v>
@@ -1366,34 +1389,37 @@
         <v>6000</v>
       </c>
       <c r="U15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V15" s="3">
         <v>5000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>6000</v>
       </c>
       <c r="X15" s="3">
         <v>6000</v>
       </c>
       <c r="Y15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Z15" s="3">
         <v>5000</v>
       </c>
       <c r="AA15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>4000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>2000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2602000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2292000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1993000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2003000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2007000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1758000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1730000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1631000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1472000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-20000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1227000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1110000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1266000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1326000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1406000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1367000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1430000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1397000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1486000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1508000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1353000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1337000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1292000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1301000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1194000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E18" s="3">
         <v>56000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>308000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>483000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>531000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>517000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>536000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>567000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>326000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1611000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>184000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>83000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>194000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>260000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>186000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>320000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>259000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>374000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>358000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>343000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>240000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>229000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>218000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>170000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>117000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>167000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>119000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>120000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>61000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>116000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>117000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>108000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>85000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>91000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>126000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>90000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>86000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>96000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-54000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>118000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>116000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>122000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>56000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>92000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>93000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>99000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>68000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E21" s="3">
         <v>258000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>580000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>709000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>757000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>678000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>746000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>777000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>525000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1688000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>359000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>263000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>406000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>445000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>358000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>296000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>582000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>562000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>545000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>375000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>403000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>388000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>341000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>257000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E22" s="3">
         <v>168000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>154000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>28000</v>
       </c>
       <c r="P22" s="3">
         <v>28000</v>
       </c>
       <c r="Q22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R22" s="3">
         <v>27000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>31000</v>
       </c>
       <c r="T22" s="3">
         <v>31000</v>
       </c>
       <c r="U22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="V22" s="3">
         <v>30000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>32000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>33000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>31000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>32000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>30000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>29000</v>
       </c>
       <c r="AB22" s="3">
         <v>29000</v>
       </c>
       <c r="AC22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>321000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>554000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>616000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>557000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>622000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>660000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>409000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1571000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>241000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>147000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>292000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>323000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>239000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>385000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>174000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>462000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>442000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>432000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>265000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>289000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>281000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>240000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>156000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-840000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>127000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>112000</v>
       </c>
       <c r="G24" s="3">
         <v>112000</v>
       </c>
       <c r="H24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>102000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>116000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>117000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>65000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>97000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>65000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>40000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>56000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E26" s="3">
         <v>770000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>194000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>442000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>504000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>530000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>520000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>544000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>324000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1454000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>227000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>211000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>339000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>102000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>397000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>345000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>367000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>295000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>232000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>241000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>184000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>161000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E27" s="3">
         <v>768000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>192000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>440000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>502000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>528000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>519000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>542000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>323000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1453000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>209000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>225000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>268000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>210000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>338000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>396000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>344000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>365000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>294000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>230000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>239000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>183000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>160000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,55 +2422,58 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-1000</v>
+        <v>-3000</v>
       </c>
       <c r="E29" s="3">
         <v>-1000</v>
       </c>
       <c r="F29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-6000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-13000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-7000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-1000</v>
       </c>
       <c r="S29" s="3">
         <v>-1000</v>
@@ -2421,34 +2482,37 @@
         <v>-1000</v>
       </c>
       <c r="U29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V29" s="3">
         <v>5000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-91000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-167000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-119000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-120000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-61000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-116000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-117000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-108000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-85000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-91000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-126000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-90000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-86000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-96000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>54000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-118000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-116000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-122000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-93000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-99000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-68000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E33" s="3">
         <v>767000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>191000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>434000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>502000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>524000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>506000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>538000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>322000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1453000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>218000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>263000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>209000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>337000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>401000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>344000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>363000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>203000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>226000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>231000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>183000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>160000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E35" s="3">
         <v>767000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>191000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>434000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>502000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>524000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>506000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>538000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>322000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1453000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>218000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>263000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>209000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>337000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>401000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>344000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>363000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>203000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>226000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>231000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>183000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>160000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1508000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9671000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>783000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>605000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>536000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1340000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1054000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>791000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>955000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>615000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>539000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>570000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>463000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>497000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>491000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>441000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>439000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>703000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>708000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>490000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>576000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>461000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>511000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>501000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>638000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3189,56 +3279,56 @@
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>331000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>533000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>26000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29000</v>
-      </c>
-      <c r="T42" s="3">
-        <v>31000</v>
       </c>
       <c r="U42" s="3">
         <v>31000</v>
       </c>
       <c r="V42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="W42" s="3">
         <v>32000</v>
@@ -3247,603 +3337,627 @@
         <v>32000</v>
       </c>
       <c r="Y42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Z42" s="3">
         <v>31000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>30000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>31000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>30000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2313000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2054000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1612000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1827000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1913000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1667000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1738000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1788000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1510000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1242000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1063000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1041000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1160000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1282000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1303000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1358000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1318000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1365000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1445000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1476000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1230000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1249000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1212000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1102000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1024000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2749000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2808000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1723000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1713000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1549000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1524000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1159000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1118000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1025000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>978000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1001000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1031000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1036000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1038000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>994000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1011000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1009000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1046000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1033000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>917000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>955000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>809000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>771000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>717000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>720000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E45" s="3">
         <v>241000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>186000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>129000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>124000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>44000</v>
       </c>
       <c r="R45" s="3">
         <v>44000</v>
       </c>
       <c r="S45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="T45" s="3">
         <v>47000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>54000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>38000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>60000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6448000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6611000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13192000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4459000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4200000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3807000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4355000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4061000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3710000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3763000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2771000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2709000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2855000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2765000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2843000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2876000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2884000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2874000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3180000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3153000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3006000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2792000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2613000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2583000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2389000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2472000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1062000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>954000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>935000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>847000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>823000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>842000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>818000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>796000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>820000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>993000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>957000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>981000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>975000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>970000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>959000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>950000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>979000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>981000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>963000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>979000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>976000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>938000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>885000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>874000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>852000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6002000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5997000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4335000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4422000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4455000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4429000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4155000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4137000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4097000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4171000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4061000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3926000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3879000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3916000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3791000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3851000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3931000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3719000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3699000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3724000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3801000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3762000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3706000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3663000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3571000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3577000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>11225000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11247000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1939000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2023000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2111000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2147000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1434000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1447000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1442000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1485000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1445000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1415000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1358000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1386000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1368000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1410000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1407000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1367000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1381000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1394000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1443000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1304000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1298000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1277000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>992000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>990000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1366000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1355000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>917000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>874000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>813000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>769000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>797000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>757000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>711000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>670000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>499000</v>
       </c>
       <c r="N52" s="3">
         <v>499000</v>
       </c>
       <c r="O52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="P52" s="3">
         <v>472000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>434000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>442000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>410000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>402000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>374000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>583000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>555000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>551000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>704000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>507000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>475000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>462000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>466000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>26090000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26272000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21337000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12713000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12426000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11975000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11583000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11220000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10756000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10909000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9769000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9506000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9545000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9476000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9414000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9506000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9574000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9313000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9824000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9789000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9780000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9538000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9062000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8883000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8288000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8357000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4319,61 +4449,62 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1518000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1128000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1250000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1169000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1160000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1042000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>998000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>906000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>797000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>699000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>599000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>724000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>780000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>764000</v>
       </c>
       <c r="R57" s="3">
         <v>764000</v>
       </c>
       <c r="S57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="T57" s="3">
         <v>699000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>819000</v>
       </c>
       <c r="U57" s="3">
         <v>819000</v>
@@ -4382,443 +4513,461 @@
         <v>819000</v>
       </c>
       <c r="W57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="X57" s="3">
         <v>797000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>807000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>695000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>666000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>615000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>625000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1306000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>977000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>809000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>860000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>791000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>103000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>497000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>496000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>958000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1045000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>749000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>496000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>368000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>319000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>743000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>561000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>229000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>366000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>425000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>326000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>435000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>384000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>107000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>118000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1244000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>683000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>536000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>525000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>554000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>667000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>631000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>532000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>680000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>752000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>618000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>455000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>478000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>401000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>325000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>380000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>399000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>484000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>425000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>380000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>426000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>420000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>374000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>293000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>334000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3851000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4068000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2788000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2595000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2554000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2505000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1812000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1935000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1973000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2409000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2262000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1928000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1533000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1408000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1822000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1779000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1532000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1610000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1602000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1559000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1550000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1424000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1015000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1077000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>13396000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13373000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11360000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3022000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3132000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3176000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3724000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3135000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3227000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3140000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2989000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3356000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3409000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3359000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3444000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2933000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2970000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3196000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3228000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3343000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3315000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2954000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2931000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2851000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2890000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2713000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2726000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1895000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1871000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1787000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1757000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1776000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1778000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1779000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1814000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1336000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1386000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1425000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1415000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1383000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1380000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1185000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1153000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1164000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1170000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1365000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1423000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1406000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1381000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1369000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>20429000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20635000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16387000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7833000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7819000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7786000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7664000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7422000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7214000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7383000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7261000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7019000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7097000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6969000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6667000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6642000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6527000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6329000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6283000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6409000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6527000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6651000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6347000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6189000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5677000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5769000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>11289000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11274000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10584000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10466000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10106000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9677000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9227000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8797000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8335000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8091000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6710000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6576000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6543000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6399000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6431000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6245000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6114000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5847000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5819000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5491000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5220000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4920000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4781000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4617000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4451000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4320000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5661000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5637000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4950000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4880000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4607000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4189000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3919000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3798000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3542000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3526000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2508000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2487000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2448000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2747000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2864000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3047000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2984000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3541000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3380000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3253000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2887000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2694000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2611000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2588000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E81" s="3">
         <v>767000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>191000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>434000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>502000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>524000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>506000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>538000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>322000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1453000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>218000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>263000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>209000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>337000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>401000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>344000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>363000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>203000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>226000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>231000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>183000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>160000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E83" s="3">
         <v>160000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>107000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>94000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>91000</v>
       </c>
       <c r="L83" s="3">
         <v>91000</v>
       </c>
       <c r="M83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="N83" s="3">
         <v>90000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>91000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>95000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>91000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>90000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>88000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>80000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>79000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>82000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>77000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>72000</v>
       </c>
       <c r="AB83" s="3">
         <v>72000</v>
       </c>
       <c r="AC83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E89" s="3">
         <v>541000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>467000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>495000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>316000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>584000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>630000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>427000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>274000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>431000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>379000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>259000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>326000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>397000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>424000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>307000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>363000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>467000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>585000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>143000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>58000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>255000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>298000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>192000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-47000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-124000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-137000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-163000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-102000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-72000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-119000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-79000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-79000</v>
       </c>
       <c r="V91" s="3">
         <v>-79000</v>
       </c>
       <c r="W91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-86000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-54000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-62000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10713000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-143000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-136000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>177000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>98000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>979000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-181000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-128000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-82000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-177000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-98000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-78000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-96000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-235000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-92000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-325000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-247000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-77000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-73000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-73000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-76000</v>
       </c>
       <c r="J96" s="3">
         <v>-76000</v>
       </c>
       <c r="K96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-78000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-72000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-74000</v>
       </c>
       <c r="O96" s="3">
         <v>-74000</v>
       </c>
       <c r="P96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-77000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-78000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-73000</v>
       </c>
       <c r="V96" s="3">
         <v>-73000</v>
       </c>
       <c r="W96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="X96" s="3">
         <v>-63000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-62000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-51000</v>
       </c>
       <c r="AB96" s="3">
         <v>-51000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1944000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8600000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-159000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-95000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-99000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-228000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-344000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-371000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-933000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-290000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-232000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-299000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-307000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-130000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-526000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-383000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-254000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>145000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>21000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-270000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-292000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>65000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-36000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
       </c>
       <c r="H101" s="3">
         <v>-3000</v>
       </c>
       <c r="I101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-17000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>16000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-341000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8163000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8888000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>178000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-804000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>286000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>263000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-164000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>340000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>76000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-264000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>218000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-86000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>115000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>10000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-137000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-614000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2795000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2853000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2348000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2301000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2486000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2538000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2275000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2266000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2198000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1798000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1591000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1411000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1193000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1460000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1432000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1586000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1592000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1687000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1689000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1771000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1844000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1851000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1593000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1566000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1510000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1471000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1311000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2109000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2222000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1964000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1755000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1781000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1793000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1554000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1551000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1437000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1313000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1215000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1084000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>951000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1116000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1172000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1169000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1234000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1269000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1255000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1323000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1336000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1180000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1183000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1145000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1121000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>989000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E10" s="3">
         <v>631000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>384000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>546000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>705000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>745000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>721000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>715000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>761000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>485000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>376000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>242000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>348000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>316000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>414000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>423000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>453000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>420000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>516000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>521000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>515000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>413000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>383000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>365000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>350000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>322000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,49 +1087,50 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E12" s="3">
         <v>42000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>20000</v>
       </c>
       <c r="M12" s="3">
         <v>20000</v>
       </c>
       <c r="N12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="O12" s="3">
         <v>19000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>17000</v>
       </c>
       <c r="Q12" s="3">
         <v>17000</v>
@@ -1128,10 +1142,10 @@
         <v>17000</v>
       </c>
       <c r="T12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="U12" s="3">
         <v>16000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>18000</v>
       </c>
       <c r="V12" s="3">
         <v>18000</v>
@@ -1143,25 +1157,28 @@
         <v>18000</v>
       </c>
       <c r="Y12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>20000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>19000</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>17000</v>
       </c>
       <c r="AB12" s="3">
         <v>17000</v>
       </c>
       <c r="AC12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="AD12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,138 +1263,144 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-7000</v>
       </c>
-      <c r="F14" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
+      <c r="G14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-12000</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>102000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>98000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-12000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>55000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E15" s="3">
         <v>41000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11000</v>
       </c>
       <c r="H15" s="3">
         <v>11000</v>
       </c>
       <c r="I15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>6000</v>
       </c>
       <c r="O15" s="3">
         <v>6000</v>
       </c>
       <c r="P15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6000</v>
       </c>
       <c r="R15" s="3">
         <v>6000</v>
@@ -1392,34 +1415,37 @@
         <v>6000</v>
       </c>
       <c r="V15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W15" s="3">
         <v>5000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>6000</v>
       </c>
       <c r="Y15" s="3">
         <v>6000</v>
       </c>
       <c r="Z15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AA15" s="3">
         <v>5000</v>
       </c>
       <c r="AB15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>4000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2460000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2602000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2292000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1993000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2003000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2007000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1758000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1730000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1631000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1472000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-20000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1227000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1110000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1364000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1326000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1406000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1367000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1430000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1397000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1486000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1508000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1353000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1337000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1292000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1301000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1194000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E18" s="3">
         <v>251000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>56000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>308000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>483000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>531000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>517000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>536000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>567000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>326000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1611000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>184000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>194000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>260000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>186000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>320000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>259000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>374000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>358000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>343000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>240000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>229000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>218000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>170000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>117000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,180 +1684,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E20" s="3">
         <v>52000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>167000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>119000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>120000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>61000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>116000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>117000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>108000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>85000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>91000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>126000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>90000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>86000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>96000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-54000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>118000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>116000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>122000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>56000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>92000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>93000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>99000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>68000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E21" s="3">
         <v>481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>258000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>580000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>709000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>757000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>678000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>746000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>777000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>525000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1688000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>359000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>263000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>406000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>445000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>358000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>296000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>582000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>562000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>545000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>375000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>403000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>388000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>341000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>257000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1832,257 +1872,266 @@
         <v>182000</v>
       </c>
       <c r="E22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="F22" s="3">
         <v>168000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>154000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>28000</v>
       </c>
       <c r="Q22" s="3">
         <v>28000</v>
       </c>
       <c r="R22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S22" s="3">
         <v>27000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>31000</v>
       </c>
       <c r="U22" s="3">
         <v>31000</v>
       </c>
       <c r="V22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="W22" s="3">
         <v>30000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>32000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>33000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>31000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>32000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>30000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>29000</v>
       </c>
       <c r="AC22" s="3">
         <v>29000</v>
       </c>
       <c r="AD22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E23" s="3">
         <v>121000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>321000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>554000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>616000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>557000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>622000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>660000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>409000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1571000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>241000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>147000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>292000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>323000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>239000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>385000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>174000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>462000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>442000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>432000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>265000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>289000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>281000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>240000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>156000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-840000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>127000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>112000</v>
       </c>
       <c r="H24" s="3">
         <v>112000</v>
       </c>
       <c r="I24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>102000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>117000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>65000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>97000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>65000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>57000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>40000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>56000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E26" s="3">
         <v>96000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>770000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>194000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>442000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>504000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>530000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>520000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>544000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>324000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1454000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>211000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>227000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>211000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>339000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>102000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>397000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>345000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>367000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>295000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>232000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>241000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>184000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>161000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E27" s="3">
         <v>94000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>768000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>192000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>440000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>502000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>528000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>519000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>542000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>323000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1453000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>209000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>225000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>268000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>210000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>338000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>396000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>344000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>365000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>294000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>230000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>239000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>183000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>160000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2425,58 +2483,61 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-1000</v>
       </c>
       <c r="F29" s="3">
         <v>-1000</v>
       </c>
       <c r="G29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H29" s="3">
         <v>-6000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-13000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-1000</v>
       </c>
       <c r="T29" s="3">
         <v>-1000</v>
@@ -2485,34 +2546,37 @@
         <v>-1000</v>
       </c>
       <c r="V29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W29" s="3">
         <v>5000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-91000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-52000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-167000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-119000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-120000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-61000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-116000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-117000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-108000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-85000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-91000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-90000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-86000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-96000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>54000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-118000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-116000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-92000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-93000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-99000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-68000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E33" s="3">
         <v>91000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>767000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>191000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>434000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>502000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>524000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>506000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>538000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>322000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1453000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>207000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>218000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>263000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>209000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>337000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>99000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>401000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>344000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>363000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>203000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>226000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>231000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>183000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>160000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E35" s="3">
         <v>91000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>767000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>191000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>434000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>502000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>524000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>506000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>538000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>322000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1453000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>207000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>218000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>263000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>209000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>337000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>99000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>401000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>344000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>363000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>203000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>226000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>231000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>183000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>160000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1167000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1508000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9671000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>783000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>605000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>536000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1340000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1054000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>791000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>955000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>615000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>539000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>570000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>463000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>497000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>491000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>441000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>439000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>703000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>708000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>490000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>576000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>461000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>511000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>501000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>638000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3282,56 +3372,56 @@
       <c r="F42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>28000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>331000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>533000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>26000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29000</v>
-      </c>
-      <c r="U42" s="3">
-        <v>31000</v>
       </c>
       <c r="V42" s="3">
         <v>31000</v>
       </c>
       <c r="W42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="X42" s="3">
         <v>32000</v>
@@ -3340,624 +3430,648 @@
         <v>32000</v>
       </c>
       <c r="Z42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AA42" s="3">
         <v>31000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>30000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>31000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>30000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2313000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2054000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1612000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1827000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1913000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1667000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1738000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1788000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1510000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1242000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1063000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1041000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1181000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1282000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1303000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1358000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1318000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1365000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1445000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1476000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1230000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1249000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1212000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1102000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1024000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2514000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2749000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2808000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1723000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1713000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1549000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1524000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1159000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1118000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1025000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>978000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1001000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1031000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1038000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>994000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1011000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1009000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1046000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1033000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>917000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>955000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>900000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>809000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>771000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>717000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>720000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E45" s="3">
         <v>219000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>241000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>186000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>129000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>124000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>44000</v>
       </c>
       <c r="S45" s="3">
         <v>44000</v>
       </c>
       <c r="T45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="U45" s="3">
         <v>47000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>54000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>63000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>59000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>38000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>60000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6252000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6448000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6611000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13192000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4459000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4200000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3807000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4355000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4061000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3710000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3763000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2771000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2709000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2855000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2765000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2843000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2876000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2884000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2874000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3180000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3153000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3006000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2792000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2613000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2583000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2389000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2472000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1049000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1062000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>954000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>935000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>847000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>823000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>842000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>818000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>796000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>820000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>993000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>957000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>981000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>975000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>970000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>959000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>950000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>979000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>981000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>963000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>979000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>976000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>938000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>885000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>874000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>852000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5944000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6002000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5997000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4335000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4422000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4455000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4429000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4155000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4097000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4171000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4061000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3926000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3879000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3916000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3791000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3851000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3931000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3719000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3699000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3724000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3801000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3762000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3706000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3663000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3571000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3577000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>11070000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11225000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11247000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1939000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2023000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2111000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2147000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1434000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1447000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1442000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1485000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1445000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1415000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1358000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1386000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1368000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1410000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1407000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1367000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1381000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1394000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1443000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1304000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1298000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1277000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>992000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>990000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1366000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1355000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>917000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>874000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>813000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>769000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>797000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>757000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>711000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>670000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>499000</v>
       </c>
       <c r="O52" s="3">
         <v>499000</v>
       </c>
       <c r="P52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>472000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>434000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>442000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>410000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>402000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>374000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>583000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>555000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>551000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>704000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>507000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>475000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>462000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>466000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>25649000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26090000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26272000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21337000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12713000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12426000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11975000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11583000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11220000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10756000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10909000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9769000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9506000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9545000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9476000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9414000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9506000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9574000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9313000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9824000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9789000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9780000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9538000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9062000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8883000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8288000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8357000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4450,64 +4580,65 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1445000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1518000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1128000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1250000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1169000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1160000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1042000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>998000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>906000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>797000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>699000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>599000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>724000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>780000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>764000</v>
       </c>
       <c r="S57" s="3">
         <v>764000</v>
       </c>
       <c r="T57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="U57" s="3">
         <v>699000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>819000</v>
       </c>
       <c r="V57" s="3">
         <v>819000</v>
@@ -4516,458 +4647,476 @@
         <v>819000</v>
       </c>
       <c r="X57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>797000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>807000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>695000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>666000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>615000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>625000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1386000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1306000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>977000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>809000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>860000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>791000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>103000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>497000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>496000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>958000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1045000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>749000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>496000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>368000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>319000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>743000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>561000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>229000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>366000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>425000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>326000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>435000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>384000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>107000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>118000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1020000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1244000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>683000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>536000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>525000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>554000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>667000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>631000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>532000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>680000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>752000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>618000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>455000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>478000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>401000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>325000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>380000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>399000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>484000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>425000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>380000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>426000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>420000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>374000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>293000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>334000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3922000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3851000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4068000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2788000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2595000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2554000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2505000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1812000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1935000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1973000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2409000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2262000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1928000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1754000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1533000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1408000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1822000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1779000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1532000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1610000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1602000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1559000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1550000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1424000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1015000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1077000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>12889000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13396000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13373000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11360000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3022000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3132000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3176000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3724000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3156000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3135000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3227000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3140000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2989000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3356000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3409000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3359000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3444000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2933000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2970000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3196000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3228000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3343000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3315000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2954000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2931000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2851000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2890000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2713000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2726000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1895000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1871000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1787000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1757000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1776000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1778000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1779000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1814000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1336000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1386000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1425000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1415000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1383000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1380000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1185000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1153000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1164000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1170000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1365000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1423000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1406000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1381000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1369000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>20025000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20429000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20635000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16387000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7833000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7819000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7786000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7664000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7422000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7214000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7383000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7261000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7019000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7097000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6969000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6667000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6642000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6527000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6329000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6283000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6409000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6527000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6651000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6347000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6189000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5677000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5769000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>11433000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11289000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11274000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10584000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10466000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10106000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9677000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9227000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8797000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8335000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8091000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6710000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6576000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6543000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6399000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6431000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6245000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6114000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5847000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5819000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5491000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5220000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4920000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4781000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4617000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4451000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4320000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5624000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5661000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5637000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4950000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4880000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4607000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4189000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3919000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3798000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3542000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3526000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2508000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2487000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2448000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2747000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2864000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3047000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2984000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3541000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3380000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3253000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2887000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2715000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2694000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2611000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2588000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E81" s="3">
         <v>91000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>767000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>191000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>434000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>502000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>524000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>506000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>538000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>322000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1453000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>207000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>218000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>263000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>209000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>337000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>99000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>401000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>344000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>363000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>203000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>226000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>231000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>183000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>160000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E83" s="3">
         <v>178000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>107000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>94000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>91000</v>
       </c>
       <c r="M83" s="3">
         <v>91000</v>
       </c>
       <c r="N83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="O83" s="3">
         <v>90000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>91000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>95000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>84000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>91000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>90000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>88000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>80000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>79000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>82000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>77000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>72000</v>
       </c>
       <c r="AC83" s="3">
         <v>72000</v>
       </c>
       <c r="AD83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-96000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>541000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>467000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>495000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>316000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>584000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>630000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>427000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>274000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>431000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>379000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>259000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>326000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>397000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>424000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>307000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>363000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>467000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>585000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>143000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>58000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>255000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>298000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>192000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-47000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-164000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-139000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-124000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-137000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-163000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-72000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-144000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-65000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-79000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-79000</v>
       </c>
       <c r="W91" s="3">
         <v>-79000</v>
       </c>
       <c r="X91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-64000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-54000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-62000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-178000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10713000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-143000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-136000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-149000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>177000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>98000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>979000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-181000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-168000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-177000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-98000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-78000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-96000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-235000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-92000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-325000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-64000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-247000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7430,85 +7664,88 @@
         <v>-76000</v>
       </c>
       <c r="E96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-77000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-73000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-73000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-76000</v>
       </c>
       <c r="K96" s="3">
         <v>-76000</v>
       </c>
       <c r="L96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-78000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-72000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-74000</v>
       </c>
       <c r="P96" s="3">
         <v>-74000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-75000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-77000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-78000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-70000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-73000</v>
       </c>
       <c r="W96" s="3">
         <v>-73000</v>
       </c>
       <c r="X96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="Y96" s="3">
         <v>-63000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-51000</v>
       </c>
       <c r="AC96" s="3">
         <v>-51000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-447000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-69000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1944000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8600000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-159000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-95000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-99000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-228000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-344000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-371000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-933000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-290000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-232000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-199000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-299000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-307000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-130000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-526000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-383000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-254000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>145000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-247000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>21000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-270000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-292000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>65000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-36000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-3000</v>
       </c>
       <c r="I101" s="3">
         <v>-3000</v>
       </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-17000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>16000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-341000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8163000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8888000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>178000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-804000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>286000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>263000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-164000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>340000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>76000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>107000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-264000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>218000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>115000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-50000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>10000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-137000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-614000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>517000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>CE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2795000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2853000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2348000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2301000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2486000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2538000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2275000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2266000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2198000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1798000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1591000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1411000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1193000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1460000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1432000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1586000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1592000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1687000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1689000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1771000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1844000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1851000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1593000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1566000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1510000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1471000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1311000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1323000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2109000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2222000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1964000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1755000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1781000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1793000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1554000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1551000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1437000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1313000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1215000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1084000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>951000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1112000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1116000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1172000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1169000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1234000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1269000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1255000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1323000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1336000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1180000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1183000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1145000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1121000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>989000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E10" s="3">
         <v>686000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>631000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>384000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>546000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>705000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>745000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>721000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>715000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>761000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>485000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>376000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>242000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>348000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>316000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>414000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>423000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>453000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>420000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>516000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>521000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>515000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>413000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>383000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>365000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>350000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>322000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,52 +1101,53 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="3">
         <v>40000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>42000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>20000</v>
       </c>
       <c r="N12" s="3">
         <v>20000</v>
       </c>
       <c r="O12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="P12" s="3">
         <v>19000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>17000</v>
       </c>
       <c r="R12" s="3">
         <v>17000</v>
@@ -1145,10 +1159,10 @@
         <v>17000</v>
       </c>
       <c r="U12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V12" s="3">
         <v>16000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>18000</v>
       </c>
       <c r="W12" s="3">
         <v>18000</v>
@@ -1160,25 +1174,28 @@
         <v>18000</v>
       </c>
       <c r="Z12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>20000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>19000</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>17000</v>
       </c>
       <c r="AC12" s="3">
         <v>17000</v>
       </c>
       <c r="AD12" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="AE12" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,144 +1283,150 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-486000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-12000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3000</v>
       </c>
       <c r="J14" s="3">
         <v>3000</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1406000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>102000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>98000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-12000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>55000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E15" s="3">
         <v>42000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>41000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11000</v>
       </c>
       <c r="I15" s="3">
         <v>11000</v>
       </c>
       <c r="J15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6000</v>
       </c>
       <c r="P15" s="3">
         <v>6000</v>
       </c>
       <c r="Q15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R15" s="3">
         <v>5000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6000</v>
       </c>
       <c r="S15" s="3">
         <v>6000</v>
@@ -1418,34 +1441,37 @@
         <v>6000</v>
       </c>
       <c r="W15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X15" s="3">
         <v>5000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>6000</v>
       </c>
       <c r="Z15" s="3">
         <v>6000</v>
       </c>
       <c r="AA15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AB15" s="3">
         <v>5000</v>
       </c>
       <c r="AC15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>4000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>2000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1881000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2460000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2602000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2292000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1993000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2003000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2007000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1758000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1730000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1631000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1472000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-20000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1227000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1266000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1364000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1326000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1406000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1367000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1430000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1397000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1486000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1508000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1353000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1337000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1292000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1301000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1194000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E18" s="3">
         <v>335000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>251000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>308000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>483000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>531000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>517000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>536000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>567000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>326000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1611000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>184000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>194000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>260000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>186000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>320000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>259000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>374000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>358000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>343000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>240000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>229000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>218000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>170000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>117000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1685,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E20" s="3">
         <v>63000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>52000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>167000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>119000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>120000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>61000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>117000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>108000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>85000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>91000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>126000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>90000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>86000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>96000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-54000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>118000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>116000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>122000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>56000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>92000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>93000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>99000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>68000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E21" s="3">
         <v>579000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>481000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>258000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>580000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>709000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>757000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>678000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>746000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>777000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>525000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1688000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>359000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>263000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>406000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>445000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>358000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>296000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>582000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>562000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>545000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>375000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>403000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>388000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>341000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>257000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>387000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="E22" s="3">
         <v>182000</v>
       </c>
       <c r="F22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="G22" s="3">
         <v>168000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>154000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>28000</v>
       </c>
       <c r="R22" s="3">
         <v>28000</v>
       </c>
       <c r="S22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T22" s="3">
         <v>27000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>31000</v>
       </c>
       <c r="V22" s="3">
         <v>31000</v>
       </c>
       <c r="W22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="X22" s="3">
         <v>30000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>32000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>33000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>31000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>32000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>30000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>29000</v>
       </c>
       <c r="AD22" s="3">
         <v>29000</v>
       </c>
       <c r="AE22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AF22" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E23" s="3">
         <v>216000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>121000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>321000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>554000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>616000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>557000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>622000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>660000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>409000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1571000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>241000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>147000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>292000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>323000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>239000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>385000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>174000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>462000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>442000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>432000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>265000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>289000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>281000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>240000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>156000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>281000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-840000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>127000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>112000</v>
       </c>
       <c r="I24" s="3">
         <v>112000</v>
       </c>
       <c r="J24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>72000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>65000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>97000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>65000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>57000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>40000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>56000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E26" s="3">
         <v>220000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>96000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>770000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>194000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>442000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>504000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>530000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>520000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>544000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>324000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1454000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>211000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>227000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>270000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>211000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>339000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>102000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>397000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>345000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>367000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>295000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>232000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>241000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>184000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>161000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>266000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E27" s="3">
         <v>219000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>94000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>768000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>192000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>440000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>502000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>528000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>519000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>542000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>323000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1453000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>209000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>110000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>225000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>268000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>210000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>338000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>396000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>344000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>365000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>294000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>230000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>239000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>183000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>160000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2486,61 +2544,64 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-1000</v>
       </c>
       <c r="G29" s="3">
         <v>-1000</v>
       </c>
       <c r="H29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-5000</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-1000</v>
       </c>
       <c r="U29" s="3">
         <v>-1000</v>
@@ -2549,34 +2610,37 @@
         <v>-1000</v>
       </c>
       <c r="W29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X29" s="3">
         <v>5000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-91000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
       <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-63000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-52000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-167000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-119000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-120000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-61000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-117000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-108000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-85000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-126000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-90000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-86000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-96000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>54000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-118000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-122000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-92000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-93000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-99000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-68000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-67000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E33" s="3">
         <v>220000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>91000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>767000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>191000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>434000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>502000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>524000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>506000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>538000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>322000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1453000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>207000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>218000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>263000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>209000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>337000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>99000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>401000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>344000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>363000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>203000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>226000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>231000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>183000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>160000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E35" s="3">
         <v>220000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>91000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>767000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>191000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>434000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>502000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>524000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>506000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>538000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>322000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1453000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>207000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>218000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>263000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>209000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>337000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>99000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>401000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>344000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>363000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>203000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>226000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>231000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>183000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>160000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1296000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1167000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1508000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9671000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>783000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>605000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>536000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1340000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1054000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>791000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>955000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>615000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>539000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>570000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>463000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>497000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>491000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>441000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>439000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>703000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>708000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>490000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>576000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>461000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>511000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>501000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>638000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3375,56 +3465,56 @@
       <c r="G42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>331000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>533000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>40000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29000</v>
-      </c>
-      <c r="V42" s="3">
-        <v>31000</v>
       </c>
       <c r="W42" s="3">
         <v>31000</v>
       </c>
       <c r="X42" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="Y42" s="3">
         <v>32000</v>
@@ -3433,645 +3523,669 @@
         <v>32000</v>
       </c>
       <c r="AA42" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AB42" s="3">
         <v>31000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>30000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>31000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>30000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1963000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2313000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2054000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1612000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1827000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1913000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1667000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1738000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1788000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1510000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1242000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1063000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1160000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1181000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1282000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1303000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1358000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1318000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1365000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1445000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1476000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1230000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1249000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1212000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1102000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1024000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1005000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2514000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2749000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2808000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1723000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1713000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1549000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1524000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1159000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1118000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1025000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>978000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1001000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1036000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1038000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>994000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1011000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1009000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1046000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1033000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>917000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>955000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>900000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>809000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>771000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>717000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>720000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>652000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E45" s="3">
         <v>479000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>219000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>241000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>186000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>129000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>124000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>44000</v>
       </c>
       <c r="T45" s="3">
         <v>44000</v>
       </c>
       <c r="U45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="V45" s="3">
         <v>47000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>48000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>53000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>54000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>63000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>59000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>38000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>60000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5887000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6252000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6448000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6611000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13192000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4459000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4200000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3807000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4355000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4061000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3710000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3763000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2771000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2709000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2855000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2765000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2843000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2876000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2884000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2874000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3180000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3153000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3006000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2792000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2613000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2583000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2389000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2472000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2978000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1028000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1049000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1062000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>954000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>935000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>847000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>823000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>842000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>818000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>796000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>820000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>993000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>957000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>981000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>975000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>970000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>959000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>950000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>979000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>981000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>963000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>979000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>976000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>938000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>885000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>874000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>852000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>864000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5862000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5944000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6002000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5997000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4335000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4422000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4455000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4429000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4155000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4137000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4097000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4171000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4061000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3926000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3879000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3916000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3791000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3851000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3931000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3719000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3699000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3724000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3801000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3762000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3706000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3663000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3571000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3577000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3578000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>10935000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11070000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11225000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11247000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1939000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2023000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2111000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2147000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1434000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1447000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1442000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1485000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1445000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1415000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1358000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1386000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1368000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1410000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1407000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1367000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1381000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1394000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1443000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1304000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1298000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1277000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>992000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>990000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1355000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1366000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1355000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>917000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>874000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>813000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>769000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>797000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>757000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>711000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>670000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>499000</v>
       </c>
       <c r="P52" s="3">
         <v>499000</v>
       </c>
       <c r="Q52" s="3">
+        <v>499000</v>
+      </c>
+      <c r="R52" s="3">
         <v>472000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>434000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>442000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>410000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>402000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>374000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>583000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>555000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>551000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>704000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>507000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>475000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>462000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>466000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>25538000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25649000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26090000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26272000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21337000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12713000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12426000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11975000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11583000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11220000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10756000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10909000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9769000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9506000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9545000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9476000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9414000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9506000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9574000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9313000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9824000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9789000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9780000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9538000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9062000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8883000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8288000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8357000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8757000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4581,67 +4711,68 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1243000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1445000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1518000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1128000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1250000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1169000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1160000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1042000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>998000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>906000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>797000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>699000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>599000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>724000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>780000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>764000</v>
       </c>
       <c r="T57" s="3">
         <v>764000</v>
       </c>
       <c r="U57" s="3">
+        <v>764000</v>
+      </c>
+      <c r="V57" s="3">
         <v>699000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>819000</v>
       </c>
       <c r="W57" s="3">
         <v>819000</v>
@@ -4650,473 +4781,491 @@
         <v>819000</v>
       </c>
       <c r="Y57" s="3">
+        <v>819000</v>
+      </c>
+      <c r="Z57" s="3">
         <v>797000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>807000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>695000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>666000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>615000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>625000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>591000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1507000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1386000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1306000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>977000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>809000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>860000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>791000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>497000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>496000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>958000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>749000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>496000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>368000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>319000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>743000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>561000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>229000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>366000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>425000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>326000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>435000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>384000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>107000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>118000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1172000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1020000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1244000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>683000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>536000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>525000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>554000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>667000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>631000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>532000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>680000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>752000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>618000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>455000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>478000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>401000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>325000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>380000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>399000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>484000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>425000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>380000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>426000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>420000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>374000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>293000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>334000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>415000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3616000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3922000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3851000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4068000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2788000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2595000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2554000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2505000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1812000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2129000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1935000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1973000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2409000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2262000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1928000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1754000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1533000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1408000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1822000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1779000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1532000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1610000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1602000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1559000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1550000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1424000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1015000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1077000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1098000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>12291000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12889000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13396000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13373000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11360000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3022000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3132000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3176000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3724000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3156000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3135000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3227000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3140000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2989000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3356000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3409000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3359000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3444000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2933000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2970000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3196000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3228000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3343000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3315000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2954000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2931000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2851000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2890000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2923000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>2682000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2750000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2713000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2726000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1895000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1871000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1787000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1757000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1776000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1778000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1779000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1814000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1336000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1386000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1425000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1415000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1383000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1380000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1185000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1153000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1164000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1170000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1365000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1423000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1406000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1381000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1369000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1585000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>19047000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20025000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20429000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20635000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16387000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7833000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7819000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7786000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7664000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7422000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7214000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7383000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7261000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7019000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7097000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6969000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6667000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6642000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6527000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6329000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6283000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6409000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6527000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6651000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6347000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6189000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5677000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5769000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>6047000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>12308000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11433000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11289000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11274000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10584000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10466000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10106000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9677000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9227000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8797000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8335000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8091000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6710000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6576000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6543000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6399000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6431000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6245000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6114000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5847000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5819000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5491000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5220000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4920000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4781000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4617000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4451000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4320000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>4211000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>6491000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5624000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5661000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5637000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4950000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4880000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4607000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4189000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3919000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3798000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3542000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3526000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2508000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2487000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2448000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2747000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2864000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3047000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2984000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3541000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3380000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3253000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2887000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2715000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2694000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2611000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2588000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2710000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E81" s="3">
         <v>220000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>91000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>767000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>191000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>434000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>502000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>524000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>506000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>538000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>322000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1453000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>207000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>218000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>263000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>209000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>337000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>99000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>401000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>344000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>363000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>203000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>226000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>231000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>183000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>160000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>262000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E83" s="3">
         <v>181000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>178000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>160000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>107000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>106000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>91000</v>
       </c>
       <c r="N83" s="3">
         <v>91000</v>
       </c>
       <c r="O83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="P83" s="3">
         <v>90000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>91000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>95000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>84000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>91000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>90000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>88000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>80000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>79000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>82000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>77000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>72000</v>
       </c>
       <c r="AD83" s="3">
         <v>72000</v>
       </c>
       <c r="AE83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="AF83" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E89" s="3">
         <v>762000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-96000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>541000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>467000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>495000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>316000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>584000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>630000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>427000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>274000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>431000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>379000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>259000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>326000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>397000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>424000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>307000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>363000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>467000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>585000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>143000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>58000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>255000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>298000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>192000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-47000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-145000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-164000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-124000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-137000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-163000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-102000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-119000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-144000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-65000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-79000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-93000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-79000</v>
       </c>
       <c r="X91" s="3">
         <v>-79000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-86000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-87000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-54000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-62000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-163000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-178000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10713000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-143000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-136000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-149000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1286000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>177000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>98000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>979000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-128000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-168000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-82000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-66000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-177000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-98000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-78000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-96000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-235000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-92000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-325000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-64000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-247000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7667,85 +7901,88 @@
         <v>-76000</v>
       </c>
       <c r="F96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-77000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-73000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-73000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-76000</v>
       </c>
       <c r="L96" s="3">
         <v>-76000</v>
       </c>
       <c r="M96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-78000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-72000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-74000</v>
       </c>
       <c r="Q96" s="3">
         <v>-74000</v>
       </c>
       <c r="R96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-75000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-77000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-78000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-70000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-71000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-73000</v>
       </c>
       <c r="X96" s="3">
         <v>-73000</v>
       </c>
       <c r="Y96" s="3">
-        <v>-63000</v>
+        <v>-73000</v>
       </c>
       <c r="Z96" s="3">
         <v>-63000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-62000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-51000</v>
       </c>
       <c r="AD96" s="3">
         <v>-51000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-700000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-447000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-69000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1944000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8600000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-159000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-95000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-99000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-228000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-344000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-371000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-933000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-290000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-232000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-199000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-299000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-307000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-130000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-526000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-383000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-254000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>145000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-247000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>21000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-270000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-292000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>65000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-36000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-22000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-3000</v>
       </c>
       <c r="J101" s="3">
         <v>-3000</v>
       </c>
       <c r="K101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>16000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-28000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E102" s="3">
         <v>129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-341000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8163000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8888000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>178000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>69000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-804000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>286000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>263000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>340000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>76000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>107000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-34000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-264000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>218000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-86000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>115000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-50000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>10000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-137000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-614000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>517000</v>
       </c>
     </row>
